--- a/UPDATED YOUTROOPERS schedule.xlsx
+++ b/UPDATED YOUTROOPERS schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clarice Alyson Ho\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smutroopers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656F49E3-A559-4791-8FA6-BDA17A36B850}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B7F6AA-681F-48B9-B5AF-EF29271CF49C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3129,6 +3129,28 @@
     <xf numFmtId="0" fontId="71" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3136,29 +3158,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -3917,8 +3917,8 @@
   <dimension ref="A1:BN62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3948,27 +3948,27 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="J1" s="70"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -3983,11 +3983,11 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:66" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="181">
+      <c r="A3" s="188">
         <f ca="1">TODAY()</f>
         <v>43853</v>
       </c>
-      <c r="B3" s="181"/>
+      <c r="B3" s="188"/>
       <c r="C3" s="160"/>
       <c r="D3" s="151"/>
       <c r="E3" s="4"/>
@@ -4019,11 +4019,11 @@
         <v>41</v>
       </c>
       <c r="C4" s="161"/>
-      <c r="D4" s="186">
+      <c r="D4" s="190">
         <v>43703</v>
       </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
       <c r="G4" s="60"/>
       <c r="H4" s="63" t="s">
         <v>40</v>
@@ -4032,182 +4032,182 @@
         <v>12</v>
       </c>
       <c r="J4" s="61"/>
-      <c r="K4" s="183" t="str">
+      <c r="K4" s="181" t="str">
         <f>"Week "&amp;(K6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="183" t="str">
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="181" t="str">
         <f>"Week "&amp;(R6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="S4" s="184"/>
-      <c r="T4" s="184"/>
-      <c r="U4" s="184"/>
-      <c r="V4" s="184"/>
-      <c r="W4" s="184"/>
-      <c r="X4" s="185"/>
-      <c r="Y4" s="183" t="str">
+      <c r="S4" s="182"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="182"/>
+      <c r="V4" s="182"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="181" t="str">
         <f>"Week "&amp;(Y6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="184"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="183" t="str">
+      <c r="Z4" s="182"/>
+      <c r="AA4" s="182"/>
+      <c r="AB4" s="182"/>
+      <c r="AC4" s="182"/>
+      <c r="AD4" s="182"/>
+      <c r="AE4" s="183"/>
+      <c r="AF4" s="181" t="str">
         <f>"Week "&amp;(AF6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="AG4" s="184"/>
-      <c r="AH4" s="184"/>
-      <c r="AI4" s="184"/>
-      <c r="AJ4" s="184"/>
-      <c r="AK4" s="184"/>
-      <c r="AL4" s="185"/>
-      <c r="AM4" s="183" t="str">
+      <c r="AG4" s="182"/>
+      <c r="AH4" s="182"/>
+      <c r="AI4" s="182"/>
+      <c r="AJ4" s="182"/>
+      <c r="AK4" s="182"/>
+      <c r="AL4" s="183"/>
+      <c r="AM4" s="181" t="str">
         <f>"Week "&amp;(AM6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="AN4" s="184"/>
-      <c r="AO4" s="184"/>
-      <c r="AP4" s="184"/>
-      <c r="AQ4" s="184"/>
-      <c r="AR4" s="184"/>
-      <c r="AS4" s="185"/>
-      <c r="AT4" s="183" t="str">
+      <c r="AN4" s="182"/>
+      <c r="AO4" s="182"/>
+      <c r="AP4" s="182"/>
+      <c r="AQ4" s="182"/>
+      <c r="AR4" s="182"/>
+      <c r="AS4" s="183"/>
+      <c r="AT4" s="181" t="str">
         <f>"Week "&amp;(AT6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="AU4" s="184"/>
-      <c r="AV4" s="184"/>
-      <c r="AW4" s="184"/>
-      <c r="AX4" s="184"/>
-      <c r="AY4" s="184"/>
-      <c r="AZ4" s="185"/>
-      <c r="BA4" s="183" t="str">
+      <c r="AU4" s="182"/>
+      <c r="AV4" s="182"/>
+      <c r="AW4" s="182"/>
+      <c r="AX4" s="182"/>
+      <c r="AY4" s="182"/>
+      <c r="AZ4" s="183"/>
+      <c r="BA4" s="181" t="str">
         <f>"Week "&amp;(BA6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="BB4" s="184"/>
-      <c r="BC4" s="184"/>
-      <c r="BD4" s="184"/>
-      <c r="BE4" s="184"/>
-      <c r="BF4" s="184"/>
-      <c r="BG4" s="185"/>
-      <c r="BH4" s="183" t="str">
+      <c r="BB4" s="182"/>
+      <c r="BC4" s="182"/>
+      <c r="BD4" s="182"/>
+      <c r="BE4" s="182"/>
+      <c r="BF4" s="182"/>
+      <c r="BG4" s="183"/>
+      <c r="BH4" s="181" t="str">
         <f>"Week "&amp;(BH6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="BI4" s="184"/>
-      <c r="BJ4" s="184"/>
-      <c r="BK4" s="184"/>
-      <c r="BL4" s="184"/>
-      <c r="BM4" s="184"/>
-      <c r="BN4" s="185"/>
+      <c r="BI4" s="182"/>
+      <c r="BJ4" s="182"/>
+      <c r="BK4" s="182"/>
+      <c r="BL4" s="182"/>
+      <c r="BM4" s="182"/>
+      <c r="BN4" s="183"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="187" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="187">
+      <c r="K5" s="184">
         <f>K6</f>
         <v>43780</v>
       </c>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="189"/>
-      <c r="R5" s="187">
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="184">
         <f>R6</f>
         <v>43787</v>
       </c>
-      <c r="S5" s="188"/>
-      <c r="T5" s="188"/>
-      <c r="U5" s="188"/>
-      <c r="V5" s="188"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="189"/>
-      <c r="Y5" s="187">
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="184">
         <f>Y6</f>
         <v>43794</v>
       </c>
-      <c r="Z5" s="188"/>
-      <c r="AA5" s="188"/>
-      <c r="AB5" s="188"/>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="189"/>
-      <c r="AF5" s="187">
+      <c r="Z5" s="185"/>
+      <c r="AA5" s="185"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185"/>
+      <c r="AE5" s="186"/>
+      <c r="AF5" s="184">
         <f>AF6</f>
         <v>43801</v>
       </c>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="188"/>
-      <c r="AJ5" s="188"/>
-      <c r="AK5" s="188"/>
-      <c r="AL5" s="189"/>
-      <c r="AM5" s="187">
+      <c r="AG5" s="185"/>
+      <c r="AH5" s="185"/>
+      <c r="AI5" s="185"/>
+      <c r="AJ5" s="185"/>
+      <c r="AK5" s="185"/>
+      <c r="AL5" s="186"/>
+      <c r="AM5" s="184">
         <f>AM6</f>
         <v>43808</v>
       </c>
-      <c r="AN5" s="188"/>
-      <c r="AO5" s="188"/>
-      <c r="AP5" s="188"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="188"/>
-      <c r="AS5" s="189"/>
-      <c r="AT5" s="187">
+      <c r="AN5" s="185"/>
+      <c r="AO5" s="185"/>
+      <c r="AP5" s="185"/>
+      <c r="AQ5" s="185"/>
+      <c r="AR5" s="185"/>
+      <c r="AS5" s="186"/>
+      <c r="AT5" s="184">
         <f>AT6</f>
         <v>43815</v>
       </c>
-      <c r="AU5" s="188"/>
-      <c r="AV5" s="188"/>
-      <c r="AW5" s="188"/>
-      <c r="AX5" s="188"/>
-      <c r="AY5" s="188"/>
-      <c r="AZ5" s="189"/>
-      <c r="BA5" s="187">
+      <c r="AU5" s="185"/>
+      <c r="AV5" s="185"/>
+      <c r="AW5" s="185"/>
+      <c r="AX5" s="185"/>
+      <c r="AY5" s="185"/>
+      <c r="AZ5" s="186"/>
+      <c r="BA5" s="184">
         <f>BA6</f>
         <v>43822</v>
       </c>
-      <c r="BB5" s="188"/>
-      <c r="BC5" s="188"/>
-      <c r="BD5" s="188"/>
-      <c r="BE5" s="188"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="189"/>
-      <c r="BH5" s="187">
+      <c r="BB5" s="185"/>
+      <c r="BC5" s="185"/>
+      <c r="BD5" s="185"/>
+      <c r="BE5" s="185"/>
+      <c r="BF5" s="185"/>
+      <c r="BG5" s="186"/>
+      <c r="BH5" s="184">
         <f>BH6</f>
         <v>43829</v>
       </c>
-      <c r="BI5" s="188"/>
-      <c r="BJ5" s="188"/>
-      <c r="BK5" s="188"/>
-      <c r="BL5" s="188"/>
-      <c r="BM5" s="188"/>
-      <c r="BN5" s="189"/>
+      <c r="BI5" s="185"/>
+      <c r="BJ5" s="185"/>
+      <c r="BK5" s="185"/>
+      <c r="BL5" s="185"/>
+      <c r="BM5" s="185"/>
+      <c r="BN5" s="186"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
@@ -7659,7 +7659,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="F43" s="166">
-        <v>43867</v>
+        <v>43852</v>
       </c>
       <c r="G43" s="178">
         <v>43874</v>
@@ -9129,6 +9129,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="20">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9139,16 +9149,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I8:I11 I31:I43 I29 I45:I61 I13:I20">

--- a/UPDATED YOUTROOPERS schedule.xlsx
+++ b/UPDATED YOUTROOPERS schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smutroopers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinong/Desktop/smutroopers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B7F6AA-681F-48B9-B5AF-EF29271CF49C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58411AD8-6B0A-984F-B8F7-73738EB0CDD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,22 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BP$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -51,7 +43,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -60,15 +52,51 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Level 1: 1, 2, 3, ...
-Level 2: 1.1, 1.2, 1.3, ...
-Level 3: 1.1.1, 1.1.2, 1.1.3, …
- - The WBS uses a formula to control the numbering, but the formulas are different for different levels. Copy and Paste the cells in the WBS column from the examples at the bottom of the worksheet.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 1: 1, 2, 3, ...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 2: 1.1, 1.2, 1.3, ...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 3: 1.1.1, 1.1.2, 1.1.3, …
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - The WBS uses a formula to control the numbering, but the formulas are different for different levels. Copy and Paste the cells in the WBS column from the examples at the bottom of the worksheet.</t>
         </r>
       </text>
     </comment>
@@ -138,13 +166,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -154,7 +182,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -162,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="I7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
   <si>
     <t>WBS</t>
   </si>
@@ -654,9 +682,6 @@
   </si>
   <si>
     <t>START</t>
-  </si>
-  <si>
-    <t>END</t>
   </si>
   <si>
     <t>% DONE</t>
@@ -1466,9 +1491,6 @@
     <t>Clarice</t>
   </si>
   <si>
-    <t>Adminimistrative</t>
-  </si>
-  <si>
     <t>Yeonwoo</t>
   </si>
   <si>
@@ -1651,6 +1673,15 @@
   </si>
   <si>
     <t>5.1.4</t>
+  </si>
+  <si>
+    <t>ACTUAL END</t>
+  </si>
+  <si>
+    <t>PROJECTED END</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1695,7 @@
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="168" formatCode="ddd\ dd/mm/yy"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="72">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2657,7 +2688,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -3129,6 +3160,13 @@
     <xf numFmtId="0" fontId="71" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3137,6 +3175,10 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="41" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3151,19 +3193,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3397,7 +3435,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="12"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$K$4" horiz="1" max="100" min="1" page="0" val="12"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3410,8 +3448,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>126076</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>898236</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>307</xdr:rowOff>
     </xdr:to>
@@ -3465,13 +3503,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
+          <xdr:col>29</xdr:col>
           <xdr:colOff>139700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
@@ -3914,89 +3952,93 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN62"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="207" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="159" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="159" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.453125" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.1796875" style="3"/>
+    <col min="3" max="3" width="12.33203125" style="159" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="159" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
+    <col min="13" max="68" width="2.5" style="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="30" customHeight="1">
       <c r="A1" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="149"/>
       <c r="D1" s="149"/>
-      <c r="E1" s="37"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="189"/>
-      <c r="AE1" s="189"/>
-    </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="182"/>
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="182"/>
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="182"/>
+    </row>
+    <row r="2" spans="1:68" ht="18" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="150"/>
       <c r="D2" s="150"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="98"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="98"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:66" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="188">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:68" ht="14">
+      <c r="A3" s="181">
         <f ca="1">TODAY()</f>
         <v>43853</v>
       </c>
-      <c r="B3" s="188"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="160"/>
       <c r="D3" s="151"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
@@ -4012,440 +4054,448 @@
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
       <c r="AA3" s="24"/>
-    </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+    </row>
+    <row r="4" spans="1:68" ht="17.25" customHeight="1">
       <c r="A4" s="59"/>
       <c r="B4" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="161"/>
-      <c r="D4" s="190">
+      <c r="D4" s="186">
         <v>43703</v>
       </c>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="69">
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="69">
         <v>12</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="181" t="str">
-        <f>"Week "&amp;(K6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+      <c r="L4" s="61"/>
+      <c r="M4" s="183" t="str">
+        <f>"Week "&amp;(M6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="181" t="str">
-        <f>"Week "&amp;(R6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="183" t="str">
+        <f>"Week "&amp;(T6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="S4" s="182"/>
-      <c r="T4" s="182"/>
-      <c r="U4" s="182"/>
-      <c r="V4" s="182"/>
-      <c r="W4" s="182"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="181" t="str">
-        <f>"Week "&amp;(Y6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="184"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="183" t="str">
+        <f>"Week "&amp;(AA6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="Z4" s="182"/>
-      <c r="AA4" s="182"/>
-      <c r="AB4" s="182"/>
-      <c r="AC4" s="182"/>
-      <c r="AD4" s="182"/>
-      <c r="AE4" s="183"/>
-      <c r="AF4" s="181" t="str">
-        <f>"Week "&amp;(AF6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="184"/>
+      <c r="AE4" s="184"/>
+      <c r="AF4" s="184"/>
+      <c r="AG4" s="185"/>
+      <c r="AH4" s="183" t="str">
+        <f>"Week "&amp;(AH6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="AG4" s="182"/>
-      <c r="AH4" s="182"/>
-      <c r="AI4" s="182"/>
-      <c r="AJ4" s="182"/>
-      <c r="AK4" s="182"/>
-      <c r="AL4" s="183"/>
-      <c r="AM4" s="181" t="str">
-        <f>"Week "&amp;(AM6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+      <c r="AI4" s="184"/>
+      <c r="AJ4" s="184"/>
+      <c r="AK4" s="184"/>
+      <c r="AL4" s="184"/>
+      <c r="AM4" s="184"/>
+      <c r="AN4" s="185"/>
+      <c r="AO4" s="183" t="str">
+        <f>"Week "&amp;(AO6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="AN4" s="182"/>
-      <c r="AO4" s="182"/>
-      <c r="AP4" s="182"/>
-      <c r="AQ4" s="182"/>
-      <c r="AR4" s="182"/>
-      <c r="AS4" s="183"/>
-      <c r="AT4" s="181" t="str">
-        <f>"Week "&amp;(AT6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+      <c r="AP4" s="184"/>
+      <c r="AQ4" s="184"/>
+      <c r="AR4" s="184"/>
+      <c r="AS4" s="184"/>
+      <c r="AT4" s="184"/>
+      <c r="AU4" s="185"/>
+      <c r="AV4" s="183" t="str">
+        <f>"Week "&amp;(AV6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="AU4" s="182"/>
-      <c r="AV4" s="182"/>
-      <c r="AW4" s="182"/>
-      <c r="AX4" s="182"/>
-      <c r="AY4" s="182"/>
-      <c r="AZ4" s="183"/>
-      <c r="BA4" s="181" t="str">
-        <f>"Week "&amp;(BA6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+      <c r="AW4" s="184"/>
+      <c r="AX4" s="184"/>
+      <c r="AY4" s="184"/>
+      <c r="AZ4" s="184"/>
+      <c r="BA4" s="184"/>
+      <c r="BB4" s="185"/>
+      <c r="BC4" s="183" t="str">
+        <f>"Week "&amp;(BC6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="BB4" s="182"/>
-      <c r="BC4" s="182"/>
-      <c r="BD4" s="182"/>
-      <c r="BE4" s="182"/>
-      <c r="BF4" s="182"/>
-      <c r="BG4" s="183"/>
-      <c r="BH4" s="181" t="str">
-        <f>"Week "&amp;(BH6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+      <c r="BD4" s="184"/>
+      <c r="BE4" s="184"/>
+      <c r="BF4" s="184"/>
+      <c r="BG4" s="184"/>
+      <c r="BH4" s="184"/>
+      <c r="BI4" s="185"/>
+      <c r="BJ4" s="183" t="str">
+        <f>"Week "&amp;(BJ6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="BI4" s="182"/>
-      <c r="BJ4" s="182"/>
-      <c r="BK4" s="182"/>
-      <c r="BL4" s="182"/>
-      <c r="BM4" s="182"/>
-      <c r="BN4" s="183"/>
-    </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK4" s="184"/>
+      <c r="BL4" s="184"/>
+      <c r="BM4" s="184"/>
+      <c r="BN4" s="184"/>
+      <c r="BO4" s="184"/>
+      <c r="BP4" s="185"/>
+    </row>
+    <row r="5" spans="1:68" ht="17.25" customHeight="1">
       <c r="A5" s="59"/>
       <c r="B5" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="187" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="184">
-        <f>K6</f>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="187">
+        <f>M6</f>
         <v>43780</v>
       </c>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="184">
-        <f>R6</f>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="187">
+        <f>T6</f>
         <v>43787</v>
       </c>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="184">
-        <f>Y6</f>
+      <c r="U5" s="188"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="188"/>
+      <c r="X5" s="188"/>
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="189"/>
+      <c r="AA5" s="187">
+        <f>AA6</f>
         <v>43794</v>
       </c>
-      <c r="Z5" s="185"/>
-      <c r="AA5" s="185"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="186"/>
-      <c r="AF5" s="184">
-        <f>AF6</f>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
+      <c r="AE5" s="188"/>
+      <c r="AF5" s="188"/>
+      <c r="AG5" s="189"/>
+      <c r="AH5" s="187">
+        <f>AH6</f>
         <v>43801</v>
       </c>
-      <c r="AG5" s="185"/>
-      <c r="AH5" s="185"/>
-      <c r="AI5" s="185"/>
-      <c r="AJ5" s="185"/>
-      <c r="AK5" s="185"/>
-      <c r="AL5" s="186"/>
-      <c r="AM5" s="184">
-        <f>AM6</f>
+      <c r="AI5" s="188"/>
+      <c r="AJ5" s="188"/>
+      <c r="AK5" s="188"/>
+      <c r="AL5" s="188"/>
+      <c r="AM5" s="188"/>
+      <c r="AN5" s="189"/>
+      <c r="AO5" s="187">
+        <f>AO6</f>
         <v>43808</v>
       </c>
-      <c r="AN5" s="185"/>
-      <c r="AO5" s="185"/>
-      <c r="AP5" s="185"/>
-      <c r="AQ5" s="185"/>
-      <c r="AR5" s="185"/>
-      <c r="AS5" s="186"/>
-      <c r="AT5" s="184">
-        <f>AT6</f>
+      <c r="AP5" s="188"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="188"/>
+      <c r="AS5" s="188"/>
+      <c r="AT5" s="188"/>
+      <c r="AU5" s="189"/>
+      <c r="AV5" s="187">
+        <f>AV6</f>
         <v>43815</v>
       </c>
-      <c r="AU5" s="185"/>
-      <c r="AV5" s="185"/>
-      <c r="AW5" s="185"/>
-      <c r="AX5" s="185"/>
-      <c r="AY5" s="185"/>
-      <c r="AZ5" s="186"/>
-      <c r="BA5" s="184">
-        <f>BA6</f>
+      <c r="AW5" s="188"/>
+      <c r="AX5" s="188"/>
+      <c r="AY5" s="188"/>
+      <c r="AZ5" s="188"/>
+      <c r="BA5" s="188"/>
+      <c r="BB5" s="189"/>
+      <c r="BC5" s="187">
+        <f>BC6</f>
         <v>43822</v>
       </c>
-      <c r="BB5" s="185"/>
-      <c r="BC5" s="185"/>
-      <c r="BD5" s="185"/>
-      <c r="BE5" s="185"/>
-      <c r="BF5" s="185"/>
-      <c r="BG5" s="186"/>
-      <c r="BH5" s="184">
-        <f>BH6</f>
+      <c r="BD5" s="188"/>
+      <c r="BE5" s="188"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="188"/>
+      <c r="BH5" s="188"/>
+      <c r="BI5" s="189"/>
+      <c r="BJ5" s="187">
+        <f>BJ6</f>
         <v>43829</v>
       </c>
-      <c r="BI5" s="185"/>
-      <c r="BJ5" s="185"/>
-      <c r="BK5" s="185"/>
-      <c r="BL5" s="185"/>
-      <c r="BM5" s="185"/>
-      <c r="BN5" s="186"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BK5" s="188"/>
+      <c r="BL5" s="188"/>
+      <c r="BM5" s="188"/>
+      <c r="BN5" s="188"/>
+      <c r="BO5" s="188"/>
+      <c r="BP5" s="189"/>
+    </row>
+    <row r="6" spans="1:68">
       <c r="A6" s="38"/>
       <c r="B6" s="39"/>
       <c r="C6" s="152"/>
       <c r="D6" s="152"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
-      <c r="K6" s="52">
-        <f>D4-WEEKDAY(D4,1)+2+7*(I4-1)</f>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="52">
+        <f>D4-WEEKDAY(D4,1)+2+7*(K4-1)</f>
         <v>43780</v>
       </c>
-      <c r="L6" s="51">
-        <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
+      <c r="N6" s="51">
+        <f t="shared" ref="N6:AS6" si="0">M6+1</f>
         <v>43781</v>
       </c>
-      <c r="M6" s="51">
+      <c r="O6" s="51">
         <f t="shared" si="0"/>
         <v>43782</v>
       </c>
-      <c r="N6" s="51">
+      <c r="P6" s="51">
         <f t="shared" si="0"/>
         <v>43783</v>
       </c>
-      <c r="O6" s="51">
+      <c r="Q6" s="51">
         <f t="shared" si="0"/>
         <v>43784</v>
       </c>
-      <c r="P6" s="51">
+      <c r="R6" s="51">
         <f t="shared" si="0"/>
         <v>43785</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="S6" s="53">
         <f t="shared" si="0"/>
         <v>43786</v>
       </c>
-      <c r="R6" s="52">
+      <c r="T6" s="52">
         <f t="shared" si="0"/>
         <v>43787</v>
       </c>
-      <c r="S6" s="51">
+      <c r="U6" s="51">
         <f t="shared" si="0"/>
         <v>43788</v>
       </c>
-      <c r="T6" s="51">
+      <c r="V6" s="51">
         <f t="shared" si="0"/>
         <v>43789</v>
       </c>
-      <c r="U6" s="51">
+      <c r="W6" s="51">
         <f t="shared" si="0"/>
         <v>43790</v>
       </c>
-      <c r="V6" s="51">
+      <c r="X6" s="51">
         <f t="shared" si="0"/>
         <v>43791</v>
       </c>
-      <c r="W6" s="51">
+      <c r="Y6" s="51">
         <f t="shared" si="0"/>
         <v>43792</v>
       </c>
-      <c r="X6" s="53">
+      <c r="Z6" s="53">
         <f t="shared" si="0"/>
         <v>43793</v>
       </c>
-      <c r="Y6" s="52">
+      <c r="AA6" s="52">
         <f t="shared" si="0"/>
         <v>43794</v>
       </c>
-      <c r="Z6" s="51">
+      <c r="AB6" s="51">
         <f t="shared" si="0"/>
         <v>43795</v>
       </c>
-      <c r="AA6" s="51">
+      <c r="AC6" s="51">
         <f t="shared" si="0"/>
         <v>43796</v>
       </c>
-      <c r="AB6" s="51">
+      <c r="AD6" s="51">
         <f t="shared" si="0"/>
         <v>43797</v>
       </c>
-      <c r="AC6" s="51">
+      <c r="AE6" s="51">
         <f t="shared" si="0"/>
         <v>43798</v>
       </c>
-      <c r="AD6" s="51">
+      <c r="AF6" s="51">
         <f t="shared" si="0"/>
         <v>43799</v>
       </c>
-      <c r="AE6" s="53">
+      <c r="AG6" s="53">
         <f t="shared" si="0"/>
         <v>43800</v>
       </c>
-      <c r="AF6" s="52">
+      <c r="AH6" s="52">
         <f t="shared" si="0"/>
         <v>43801</v>
       </c>
-      <c r="AG6" s="51">
+      <c r="AI6" s="51">
         <f t="shared" si="0"/>
         <v>43802</v>
       </c>
-      <c r="AH6" s="51">
+      <c r="AJ6" s="51">
         <f t="shared" si="0"/>
         <v>43803</v>
       </c>
-      <c r="AI6" s="51">
+      <c r="AK6" s="51">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
-      <c r="AJ6" s="51">
+      <c r="AL6" s="51">
         <f t="shared" si="0"/>
         <v>43805</v>
       </c>
-      <c r="AK6" s="51">
+      <c r="AM6" s="51">
         <f t="shared" si="0"/>
         <v>43806</v>
       </c>
-      <c r="AL6" s="53">
+      <c r="AN6" s="53">
         <f t="shared" si="0"/>
         <v>43807</v>
       </c>
-      <c r="AM6" s="52">
+      <c r="AO6" s="52">
         <f t="shared" si="0"/>
         <v>43808</v>
       </c>
-      <c r="AN6" s="51">
+      <c r="AP6" s="51">
         <f t="shared" si="0"/>
         <v>43809</v>
       </c>
-      <c r="AO6" s="51">
+      <c r="AQ6" s="51">
         <f t="shared" si="0"/>
         <v>43810</v>
       </c>
-      <c r="AP6" s="51">
+      <c r="AR6" s="51">
         <f t="shared" si="0"/>
         <v>43811</v>
       </c>
-      <c r="AQ6" s="51">
+      <c r="AS6" s="51">
         <f t="shared" si="0"/>
         <v>43812</v>
       </c>
-      <c r="AR6" s="51">
-        <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
+      <c r="AT6" s="51">
+        <f t="shared" ref="AT6:BP6" si="1">AS6+1</f>
         <v>43813</v>
       </c>
-      <c r="AS6" s="53">
+      <c r="AU6" s="53">
         <f t="shared" si="1"/>
         <v>43814</v>
       </c>
-      <c r="AT6" s="52">
+      <c r="AV6" s="52">
         <f t="shared" si="1"/>
         <v>43815</v>
       </c>
-      <c r="AU6" s="51">
+      <c r="AW6" s="51">
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="AV6" s="51">
+      <c r="AX6" s="51">
         <f t="shared" si="1"/>
         <v>43817</v>
       </c>
-      <c r="AW6" s="51">
+      <c r="AY6" s="51">
         <f t="shared" si="1"/>
         <v>43818</v>
       </c>
-      <c r="AX6" s="51">
+      <c r="AZ6" s="51">
         <f t="shared" si="1"/>
         <v>43819</v>
       </c>
-      <c r="AY6" s="51">
+      <c r="BA6" s="51">
         <f t="shared" si="1"/>
         <v>43820</v>
       </c>
-      <c r="AZ6" s="53">
+      <c r="BB6" s="53">
         <f t="shared" si="1"/>
         <v>43821</v>
       </c>
-      <c r="BA6" s="52">
+      <c r="BC6" s="52">
         <f t="shared" si="1"/>
         <v>43822</v>
       </c>
-      <c r="BB6" s="51">
+      <c r="BD6" s="51">
         <f t="shared" si="1"/>
         <v>43823</v>
       </c>
-      <c r="BC6" s="51">
+      <c r="BE6" s="51">
         <f t="shared" si="1"/>
         <v>43824</v>
       </c>
-      <c r="BD6" s="51">
+      <c r="BF6" s="51">
         <f t="shared" si="1"/>
         <v>43825</v>
       </c>
-      <c r="BE6" s="51">
+      <c r="BG6" s="51">
         <f t="shared" si="1"/>
         <v>43826</v>
       </c>
-      <c r="BF6" s="51">
+      <c r="BH6" s="51">
         <f t="shared" si="1"/>
         <v>43827</v>
       </c>
-      <c r="BG6" s="53">
+      <c r="BI6" s="53">
         <f t="shared" si="1"/>
         <v>43828</v>
       </c>
-      <c r="BH6" s="52">
+      <c r="BJ6" s="52">
         <f t="shared" si="1"/>
         <v>43829</v>
       </c>
-      <c r="BI6" s="51">
+      <c r="BK6" s="51">
         <f t="shared" si="1"/>
         <v>43830</v>
       </c>
-      <c r="BJ6" s="51">
+      <c r="BL6" s="51">
         <f t="shared" si="1"/>
         <v>43831</v>
       </c>
-      <c r="BK6" s="51">
+      <c r="BM6" s="51">
         <f t="shared" si="1"/>
         <v>43832</v>
       </c>
-      <c r="BL6" s="51">
+      <c r="BN6" s="51">
         <f t="shared" si="1"/>
         <v>43833</v>
       </c>
-      <c r="BM6" s="51">
+      <c r="BO6" s="51">
         <f t="shared" si="1"/>
         <v>43834</v>
       </c>
-      <c r="BN6" s="53">
+      <c r="BP6" s="53">
         <f t="shared" si="1"/>
         <v>43835</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="67" customFormat="1" ht="23.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" s="67" customFormat="1" ht="27" thickBot="1">
       <c r="A7" s="170" t="s">
         <v>0</v>
       </c>
@@ -4453,40 +4503,38 @@
         <v>33</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="174" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="172" t="s">
+      <c r="E7" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="172" t="s">
+      <c r="H7" s="172" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" s="173" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="173" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="173" t="s">
+      <c r="L7" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="173" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="169" t="str">
-        <f t="shared" ref="K7:AP7" si="2">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
+      <c r="M7" s="169" t="str">
+        <f t="shared" ref="M7:AR7" si="2">CHOOSE(WEEKDAY(M6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
-      </c>
-      <c r="L7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="M7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>W</v>
       </c>
       <c r="N7" s="65" t="str">
         <f t="shared" si="2"/>
@@ -4494,27 +4542,27 @@
       </c>
       <c r="O7" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
+        <v>W</v>
       </c>
       <c r="P7" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="Q7" s="66" t="str">
+        <v>T</v>
+      </c>
+      <c r="Q7" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="R7" s="65" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="R7" s="64" t="str">
+      <c r="S7" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="T7" s="64" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
-      </c>
-      <c r="S7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="T7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>W</v>
       </c>
       <c r="U7" s="65" t="str">
         <f t="shared" si="2"/>
@@ -4522,27 +4570,27 @@
       </c>
       <c r="V7" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
+        <v>W</v>
       </c>
       <c r="W7" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="X7" s="66" t="str">
+        <v>T</v>
+      </c>
+      <c r="X7" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="Y7" s="65" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="64" t="str">
+      <c r="Z7" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AA7" s="64" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
-      </c>
-      <c r="Z7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AA7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>W</v>
       </c>
       <c r="AB7" s="65" t="str">
         <f t="shared" si="2"/>
@@ -4550,27 +4598,27 @@
       </c>
       <c r="AC7" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
+        <v>W</v>
       </c>
       <c r="AD7" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="AE7" s="66" t="str">
+        <v>T</v>
+      </c>
+      <c r="AE7" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AF7" s="65" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AF7" s="64" t="str">
+      <c r="AG7" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AH7" s="64" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
-      </c>
-      <c r="AG7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AH7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>W</v>
       </c>
       <c r="AI7" s="65" t="str">
         <f t="shared" si="2"/>
@@ -4578,55 +4626,55 @@
       </c>
       <c r="AJ7" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
+        <v>W</v>
       </c>
       <c r="AK7" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="AL7" s="66" t="str">
+        <v>T</v>
+      </c>
+      <c r="AL7" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AM7" s="65" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="64" t="str">
+      <c r="AN7" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AO7" s="64" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
-      </c>
-      <c r="AN7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AO7" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>W</v>
       </c>
       <c r="AP7" s="65" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AQ7" s="65" t="str">
-        <f t="shared" ref="AQ7:BN7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AR7" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AS7" s="65" t="str">
+        <f t="shared" ref="AS7:BP7" si="3">CHOOSE(WEEKDAY(AS6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AR7" s="65" t="str">
+      <c r="AT7" s="65" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AS7" s="66" t="str">
+      <c r="AU7" s="66" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="64" t="str">
+      <c r="AV7" s="64" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
-      </c>
-      <c r="AU7" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AV7" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
       </c>
       <c r="AW7" s="65" t="str">
         <f t="shared" si="3"/>
@@ -4634,27 +4682,27 @@
       </c>
       <c r="AX7" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>W</v>
       </c>
       <c r="AY7" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AZ7" s="66" t="str">
+        <v>T</v>
+      </c>
+      <c r="AZ7" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="BA7" s="65" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="64" t="str">
+      <c r="BB7" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="BC7" s="64" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
-      </c>
-      <c r="BB7" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BC7" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
       </c>
       <c r="BD7" s="65" t="str">
         <f t="shared" si="3"/>
@@ -4662,27 +4710,27 @@
       </c>
       <c r="BE7" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>W</v>
       </c>
       <c r="BF7" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BG7" s="66" t="str">
+        <v>T</v>
+      </c>
+      <c r="BG7" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="BH7" s="65" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="64" t="str">
+      <c r="BI7" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="BJ7" s="64" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
-      </c>
-      <c r="BI7" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BJ7" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
       </c>
       <c r="BK7" s="65" t="str">
         <f t="shared" si="3"/>
@@ -4690,40 +4738,48 @@
       </c>
       <c r="BL7" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>W</v>
       </c>
       <c r="BM7" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BN7" s="66" t="str">
+        <v>T</v>
+      </c>
+      <c r="BN7" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="BO7" s="65" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-    </row>
-    <row r="8" spans="1:66" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BP7" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" s="42" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="133">
         <v>1</v>
       </c>
       <c r="B8" s="134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="162"/>
       <c r="D8" s="153"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137" t="str">
-        <f>IF(ISBLANK(F8)," - ",IF(H8=0,F8,F8+H8-1))</f>
+      <c r="E8" s="153"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137" t="str">
+        <f>IF(ISBLANK(G8)," - ",IF(J8=0,G8,G8+J8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="140" t="str">
-        <f t="shared" ref="J8:J37" si="4">IF(OR(G8=0,F8=0)," - ",NETWORKDAYS(F8,G8))</f>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140" t="str">
+        <f t="shared" ref="L8:L37" si="4">IF(OR(I8=0,G8=0)," - ",NETWORKDAYS(G8,I8))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
@@ -4778,42 +4834,44 @@
       <c r="BL8" s="55"/>
       <c r="BM8" s="55"/>
       <c r="BN8" s="55"/>
-    </row>
-    <row r="9" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO8" s="55"/>
+      <c r="BP8" s="55"/>
+    </row>
+    <row r="9" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="141" t="str">
         <f t="shared" ref="A9:A31" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="166">
+        <v>151</v>
+      </c>
+      <c r="E9" s="154"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="166">
         <v>43703</v>
       </c>
-      <c r="G9" s="178">
-        <f ca="1">IF(ISBLANK(F9)," - ",IF(H9=0,F9,F9+H9-1))</f>
+      <c r="H9" s="166"/>
+      <c r="I9" s="178">
+        <f ca="1">IF(ISBLANK(G9)," - ",IF(J9=0,G9,G9+J9-1))</f>
         <v>43737</v>
       </c>
-      <c r="H9" s="146">
-        <f ca="1">A3-G9</f>
+      <c r="J9" s="146">
+        <f ca="1">A3-I9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="147">
+      <c r="K9" s="147">
         <v>1</v>
       </c>
-      <c r="J9" s="148">
-        <f ca="1">IF(OR(G9=0,F9=0)," - ",NETWORKDAYS(F9,G9))</f>
-        <v>25</v>
-      </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="L9" s="148">
+        <f>_xlfn.DAYS(H9,G9)</f>
+        <v>-43703</v>
+      </c>
       <c r="M9" s="56"/>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
@@ -4868,42 +4926,44 @@
       <c r="BL9" s="56"/>
       <c r="BM9" s="56"/>
       <c r="BN9" s="56"/>
-    </row>
-    <row r="10" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO9" s="56"/>
+      <c r="BP9" s="56"/>
+    </row>
+    <row r="10" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="141" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="B10" s="142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="166">
+        <v>151</v>
+      </c>
+      <c r="E10" s="154"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="166">
         <v>43739</v>
       </c>
-      <c r="G10" s="178">
-        <f ca="1">IF(ISBLANK(F10)," - ",IF(H10=0,F10,F10+H10-1))</f>
+      <c r="H10" s="166"/>
+      <c r="I10" s="178">
+        <f ca="1">IF(ISBLANK(G10)," - ",IF(J10=0,G10,G10+J10-1))</f>
         <v>43786</v>
       </c>
-      <c r="H10" s="146">
-        <f t="shared" ref="H10:H11" ca="1" si="6">A4-G10</f>
+      <c r="J10" s="146">
+        <f t="shared" ref="J10:J11" ca="1" si="6">A4-I10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="147">
+      <c r="K10" s="147">
         <v>1</v>
       </c>
-      <c r="J10" s="148">
+      <c r="L10" s="148">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
       <c r="M10" s="56"/>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
@@ -4958,45 +5018,47 @@
       <c r="BL10" s="56"/>
       <c r="BM10" s="56"/>
       <c r="BN10" s="56"/>
-    </row>
-    <row r="11" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO10" s="56"/>
+      <c r="BP10" s="56"/>
+    </row>
+    <row r="11" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="141" t="str">
         <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="B11" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="163" t="s">
-        <v>101</v>
-      </c>
       <c r="D11" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="166">
+        <v>151</v>
+      </c>
+      <c r="E11" s="154"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="166">
         <v>43828</v>
       </c>
-      <c r="G11" s="178">
-        <f t="shared" ref="G11:G37" ca="1" si="7">IF(ISBLANK(F11)," - ",IF(H11=0,F11,F11+H11-1))</f>
+      <c r="H11" s="166"/>
+      <c r="I11" s="178">
+        <f t="shared" ref="I11:I37" ca="1" si="7">IF(ISBLANK(G11)," - ",IF(J11=0,G11,G11+J11-1))</f>
         <v>43834</v>
       </c>
-      <c r="H11" s="146">
+      <c r="J11" s="146">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="147">
+      <c r="K11" s="147">
         <v>1</v>
       </c>
-      <c r="J11" s="148">
+      <c r="L11" s="148">
         <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="56"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="56"/>
@@ -5048,32 +5110,34 @@
       <c r="BL11" s="56"/>
       <c r="BM11" s="56"/>
       <c r="BN11" s="56"/>
-    </row>
-    <row r="12" spans="1:66" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO11" s="56"/>
+      <c r="BP11" s="56"/>
+    </row>
+    <row r="12" spans="1:68" s="42" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="133">
         <v>2</v>
       </c>
       <c r="B12" s="134" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="162"/>
       <c r="D12" s="155" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="137" t="str">
-        <f>IF(ISBLANK(F12)," - ",IF(H12=0,F12,F12+H12-1))</f>
+        <v>114</v>
+      </c>
+      <c r="E12" s="155"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="137" t="str">
+        <f>IF(ISBLANK(G12)," - ",IF(J12=0,G12,G12+J12-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="H12" s="138"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140" t="str">
-        <f t="shared" ref="J12" si="8">IF(OR(G12=0,F12=0)," - ",NETWORKDAYS(F12,G12))</f>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="140" t="str">
+        <f t="shared" ref="L12" si="8">IF(OR(I12=0,G12=0)," - ",NETWORKDAYS(G12,I12))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
       <c r="O12" s="55"/>
@@ -5128,41 +5192,43 @@
       <c r="BL12" s="55"/>
       <c r="BM12" s="55"/>
       <c r="BN12" s="55"/>
-    </row>
-    <row r="13" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="55"/>
+    </row>
+    <row r="13" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="141" t="str">
         <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
       <c r="B13" s="142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="163" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="166">
+      <c r="E13" s="154"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="166">
         <v>43836</v>
       </c>
-      <c r="G13" s="178">
+      <c r="H13" s="166"/>
+      <c r="I13" s="178">
         <v>43840</v>
       </c>
-      <c r="H13" s="146">
-        <f ca="1">IF((_xlfn.DAYS(G13,$A$3))&lt;0, 0, _xlfn.DAYS(G13,$A$3))</f>
+      <c r="J13" s="146">
+        <f ca="1">IF((_xlfn.DAYS(I13,$A$3))&lt;0, 0, _xlfn.DAYS(I13,$A$3))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="147">
+      <c r="K13" s="147">
         <v>1</v>
       </c>
-      <c r="J13" s="148">
+      <c r="L13" s="148">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
       <c r="M13" s="56"/>
       <c r="N13" s="56"/>
       <c r="O13" s="56"/>
@@ -5217,39 +5283,41 @@
       <c r="BL13" s="56"/>
       <c r="BM13" s="56"/>
       <c r="BN13" s="56"/>
-    </row>
-    <row r="14" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO13" s="56"/>
+      <c r="BP13" s="56"/>
+    </row>
+    <row r="14" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="141" t="str">
         <f t="shared" si="5"/>
         <v>2.2</v>
       </c>
       <c r="B14" s="142" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="166">
+        <v>114</v>
+      </c>
+      <c r="E14" s="154"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="166">
         <v>43841</v>
       </c>
-      <c r="G14" s="178">
+      <c r="H14" s="166"/>
+      <c r="I14" s="178">
         <v>43884</v>
       </c>
-      <c r="H14" s="146">
-        <f t="shared" ref="H14:H53" ca="1" si="9">IF((_xlfn.DAYS(G14,$A$3))&lt;0, 0, _xlfn.DAYS(G14,$A$3))</f>
+      <c r="J14" s="146">
+        <f t="shared" ref="J14:J54" ca="1" si="9">IF((_xlfn.DAYS(I14,$A$3))&lt;0, 0, _xlfn.DAYS(I14,$A$3))</f>
         <v>31</v>
       </c>
-      <c r="I14" s="147"/>
-      <c r="J14" s="148">
+      <c r="K14" s="147"/>
+      <c r="L14" s="148">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
       <c r="M14" s="56"/>
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
@@ -5304,42 +5372,44 @@
       <c r="BL14" s="56"/>
       <c r="BM14" s="56"/>
       <c r="BN14" s="56"/>
-    </row>
-    <row r="15" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO14" s="56"/>
+      <c r="BP14" s="56"/>
+    </row>
+    <row r="15" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="176" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" s="142" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="166">
+        <v>114</v>
+      </c>
+      <c r="E15" s="154"/>
+      <c r="F15" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="166">
         <v>43841</v>
       </c>
-      <c r="G15" s="178">
+      <c r="H15" s="166"/>
+      <c r="I15" s="178">
         <v>43845</v>
       </c>
-      <c r="H15" s="146">
+      <c r="J15" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I15" s="147">
+      <c r="K15" s="147">
         <v>1</v>
       </c>
-      <c r="J15" s="148">
+      <c r="L15" s="148">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
       <c r="O15" s="56"/>
@@ -5394,37 +5464,39 @@
       <c r="BL15" s="56"/>
       <c r="BM15" s="56"/>
       <c r="BN15" s="56"/>
-    </row>
-    <row r="16" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO15" s="56"/>
+      <c r="BP15" s="56"/>
+    </row>
+    <row r="16" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="176" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="142" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="143" t="str">
+        <v>114</v>
+      </c>
+      <c r="E16" s="154"/>
+      <c r="F16" s="143" t="str">
         <f>A13</f>
         <v>2.1</v>
       </c>
-      <c r="F16" s="166"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="146">
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148" t="str">
+      <c r="K16" s="147"/>
+      <c r="L16" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
@@ -5479,37 +5551,39 @@
       <c r="BL16" s="56"/>
       <c r="BM16" s="56"/>
       <c r="BN16" s="56"/>
-    </row>
-    <row r="17" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO16" s="56"/>
+      <c r="BP16" s="56"/>
+    </row>
+    <row r="17" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="176" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" s="142" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" s="163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="143" t="str">
+        <v>114</v>
+      </c>
+      <c r="E17" s="154"/>
+      <c r="F17" s="143" t="str">
         <f>A13</f>
         <v>2.1</v>
       </c>
-      <c r="F17" s="166"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="146">
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I17" s="147"/>
-      <c r="J17" s="148" t="str">
+      <c r="K17" s="147"/>
+      <c r="L17" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
       <c r="O17" s="56"/>
@@ -5564,37 +5638,39 @@
       <c r="BL17" s="56"/>
       <c r="BM17" s="56"/>
       <c r="BN17" s="56"/>
-    </row>
-    <row r="18" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO17" s="56"/>
+      <c r="BP17" s="56"/>
+    </row>
+    <row r="18" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="176" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" s="163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="143" t="str">
+        <v>114</v>
+      </c>
+      <c r="E18" s="154"/>
+      <c r="F18" s="143" t="str">
         <f>A17</f>
         <v>2.2.2</v>
       </c>
-      <c r="F18" s="166"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="146">
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I18" s="147"/>
-      <c r="J18" s="148" t="str">
+      <c r="K18" s="147"/>
+      <c r="L18" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
       <c r="O18" s="56"/>
@@ -5649,34 +5725,38 @@
       <c r="BL18" s="56"/>
       <c r="BM18" s="56"/>
       <c r="BN18" s="56"/>
-    </row>
-    <row r="19" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO18" s="56"/>
+      <c r="BP18" s="56"/>
+    </row>
+    <row r="19" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="176" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="142" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" s="163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="146">
+        <v>114</v>
+      </c>
+      <c r="E19" s="154"/>
+      <c r="F19" s="143">
+        <v>1</v>
+      </c>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148" t="str">
+      <c r="K19" s="147"/>
+      <c r="L19" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
@@ -5731,36 +5811,38 @@
       <c r="BL19" s="56"/>
       <c r="BM19" s="56"/>
       <c r="BN19" s="56"/>
-    </row>
-    <row r="20" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO19" s="56"/>
+      <c r="BP19" s="56"/>
+    </row>
+    <row r="20" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="141">
         <v>2.2999999999999998</v>
       </c>
       <c r="B20" s="142" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="163" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="168" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="166">
+        <v>123</v>
+      </c>
+      <c r="E20" s="163"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="166">
         <v>43841</v>
       </c>
-      <c r="G20" s="178"/>
-      <c r="H20" s="146">
+      <c r="H20" s="166"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148" t="str">
+      <c r="K20" s="147"/>
+      <c r="L20" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
@@ -5815,32 +5897,34 @@
       <c r="BL20" s="56"/>
       <c r="BM20" s="56"/>
       <c r="BN20" s="56"/>
-    </row>
-    <row r="21" spans="1:66" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO20" s="56"/>
+      <c r="BP20" s="56"/>
+    </row>
+    <row r="21" spans="1:68" s="42" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="133">
         <v>3</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="162"/>
       <c r="D21" s="155" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137" t="str">
-        <f t="shared" ref="G21" si="10">IF(ISBLANK(F21)," - ",IF(H21=0,F21,F21+H21-1))</f>
+        <v>125</v>
+      </c>
+      <c r="E21" s="162"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137" t="str">
+        <f t="shared" ref="I21" si="10">IF(ISBLANK(G21)," - ",IF(J21=0,G21,G21+J21-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="H21" s="138"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140" t="str">
+      <c r="J21" s="138"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="140" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
@@ -5895,39 +5979,41 @@
       <c r="BL21" s="58"/>
       <c r="BM21" s="58"/>
       <c r="BN21" s="58"/>
-    </row>
-    <row r="22" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO21" s="58"/>
+      <c r="BP21" s="58"/>
+    </row>
+    <row r="22" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="141" t="str">
         <f t="shared" si="5"/>
         <v>3.1</v>
       </c>
       <c r="B22" s="142" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="143"/>
-      <c r="F22" s="166">
+        <v>125</v>
+      </c>
+      <c r="E22" s="154"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="166">
         <v>43845</v>
       </c>
-      <c r="G22" s="178">
+      <c r="H22" s="166"/>
+      <c r="I22" s="178">
         <v>43853</v>
       </c>
-      <c r="H22" s="146">
+      <c r="J22" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I22" s="147"/>
-      <c r="J22" s="148">
+      <c r="K22" s="147"/>
+      <c r="L22" s="148">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
@@ -5982,34 +6068,35 @@
       <c r="BL22" s="56"/>
       <c r="BM22" s="56"/>
       <c r="BN22" s="56"/>
-    </row>
-    <row r="23" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO22" s="56"/>
+      <c r="BP22" s="56"/>
+    </row>
+    <row r="23" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="141">
         <v>3.2</v>
       </c>
       <c r="B23" s="142" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="146">
+        <v>125</v>
+      </c>
+      <c r="F23" s="143"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I23" s="147"/>
-      <c r="J23" s="148" t="str">
+      <c r="K23" s="147"/>
+      <c r="L23" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
       <c r="M23" s="56"/>
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
@@ -6064,34 +6151,36 @@
       <c r="BL23" s="56"/>
       <c r="BM23" s="56"/>
       <c r="BN23" s="56"/>
-    </row>
-    <row r="24" spans="1:66" s="44" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO23" s="56"/>
+      <c r="BP23" s="56"/>
+    </row>
+    <row r="24" spans="1:68" s="44" customFormat="1" ht="26" customHeight="1">
       <c r="A24" s="176" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="146">
+        <v>125</v>
+      </c>
+      <c r="E24" s="154"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I24" s="147"/>
-      <c r="J24" s="148" t="str">
+      <c r="K24" s="147"/>
+      <c r="L24" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
       <c r="M24" s="56"/>
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
@@ -6146,34 +6235,36 @@
       <c r="BL24" s="56"/>
       <c r="BM24" s="56"/>
       <c r="BN24" s="56"/>
-    </row>
-    <row r="25" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO24" s="56"/>
+      <c r="BP24" s="56"/>
+    </row>
+    <row r="25" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="176" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="142" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="146">
+        <v>125</v>
+      </c>
+      <c r="E25" s="193"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I25" s="147"/>
-      <c r="J25" s="148" t="str">
+      <c r="K25" s="147"/>
+      <c r="L25" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
       <c r="M25" s="56"/>
       <c r="N25" s="56"/>
       <c r="O25" s="56"/>
@@ -6228,34 +6319,36 @@
       <c r="BL25" s="56"/>
       <c r="BM25" s="56"/>
       <c r="BN25" s="56"/>
-    </row>
-    <row r="26" spans="1:66" s="44" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="BO25" s="56"/>
+      <c r="BP25" s="56"/>
+    </row>
+    <row r="26" spans="1:68" s="44" customFormat="1" ht="26">
       <c r="A26" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B26" s="142" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" s="168" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="143"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="146">
+        <v>123</v>
+      </c>
+      <c r="E26" s="193"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I26" s="147"/>
-      <c r="J26" s="148" t="str">
+      <c r="K26" s="147"/>
+      <c r="L26" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
       <c r="M26" s="56"/>
       <c r="N26" s="56"/>
       <c r="O26" s="56"/>
@@ -6310,34 +6403,36 @@
       <c r="BL26" s="56"/>
       <c r="BM26" s="56"/>
       <c r="BN26" s="56"/>
-    </row>
-    <row r="27" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO26" s="56"/>
+      <c r="BP26" s="56"/>
+    </row>
+    <row r="27" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="176" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B27" s="142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="143"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="146">
+        <v>125</v>
+      </c>
+      <c r="E27" s="193"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I27" s="147"/>
-      <c r="J27" s="148" t="str">
+      <c r="K27" s="147"/>
+      <c r="L27" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
       <c r="M27" s="56"/>
       <c r="N27" s="56"/>
       <c r="O27" s="56"/>
@@ -6392,34 +6487,36 @@
       <c r="BL27" s="56"/>
       <c r="BM27" s="56"/>
       <c r="BN27" s="56"/>
-    </row>
-    <row r="28" spans="1:66" s="44" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO27" s="56"/>
+      <c r="BP27" s="56"/>
+    </row>
+    <row r="28" spans="1:68" s="44" customFormat="1" ht="26" customHeight="1">
       <c r="A28" s="176" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="142" t="s">
-        <v>144</v>
-      </c>
       <c r="C28" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" s="168" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="143"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="146">
+        <v>123</v>
+      </c>
+      <c r="E28" s="154"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="148" t="str">
+      <c r="K28" s="147"/>
+      <c r="L28" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
       <c r="M28" s="56"/>
       <c r="N28" s="56"/>
       <c r="O28" s="56"/>
@@ -6474,37 +6571,39 @@
       <c r="BL28" s="56"/>
       <c r="BM28" s="56"/>
       <c r="BN28" s="56"/>
-    </row>
-    <row r="29" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO28" s="56"/>
+      <c r="BP28" s="56"/>
+    </row>
+    <row r="29" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
       <c r="B29" s="142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C29" s="163" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="168" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="166">
+        <v>123</v>
+      </c>
+      <c r="E29" s="154"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="166">
         <v>43840</v>
       </c>
-      <c r="G29" s="178"/>
-      <c r="H29" s="146">
+      <c r="H29" s="166"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148" t="str">
+      <c r="K29" s="147"/>
+      <c r="L29" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
       <c r="M29" s="56"/>
       <c r="N29" s="56"/>
       <c r="O29" s="56"/>
@@ -6559,32 +6658,34 @@
       <c r="BL29" s="56"/>
       <c r="BM29" s="56"/>
       <c r="BN29" s="56"/>
-    </row>
-    <row r="30" spans="1:66" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO29" s="56"/>
+      <c r="BP29" s="56"/>
+    </row>
+    <row r="30" spans="1:68" s="42" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="133">
         <v>4</v>
       </c>
       <c r="B30" s="134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="162"/>
       <c r="D30" s="155" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="135"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137" t="str">
-        <f t="shared" ref="G30" si="11">IF(ISBLANK(F30)," - ",IF(H30=0,F30,F30+H30-1))</f>
+      <c r="F30" s="135"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137" t="str">
+        <f t="shared" ref="I30" si="11">IF(ISBLANK(G30)," - ",IF(J30=0,G30,G30+J30-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="140" t="str">
-        <f t="shared" ref="J30" si="12">IF(OR(G30=0,F30=0)," - ",NETWORKDAYS(F30,G30))</f>
+      <c r="J30" s="138"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140" t="str">
+        <f t="shared" ref="L30" si="12">IF(OR(I30=0,G30=0)," - ",NETWORKDAYS(G30,I30))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
       <c r="M30" s="58"/>
       <c r="N30" s="58"/>
       <c r="O30" s="58"/>
@@ -6639,35 +6740,37 @@
       <c r="BL30" s="58"/>
       <c r="BM30" s="58"/>
       <c r="BN30" s="58"/>
-    </row>
-    <row r="31" spans="1:66" s="44" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO30" s="58"/>
+      <c r="BP30" s="58"/>
+    </row>
+    <row r="31" spans="1:68" s="44" customFormat="1" ht="31" customHeight="1">
       <c r="A31" s="141" t="str">
         <f t="shared" si="5"/>
         <v>4.1</v>
       </c>
       <c r="B31" s="142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C31" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="143"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="146">
+        <v>113</v>
+      </c>
+      <c r="E31" s="154"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I31" s="147"/>
-      <c r="J31" s="148" t="str">
+      <c r="K31" s="147"/>
+      <c r="L31" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
       <c r="M31" s="56"/>
       <c r="N31" s="56"/>
       <c r="O31" s="56"/>
@@ -6722,34 +6825,36 @@
       <c r="BL31" s="56"/>
       <c r="BM31" s="56"/>
       <c r="BN31" s="56"/>
-    </row>
-    <row r="32" spans="1:66" s="44" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO31" s="56"/>
+      <c r="BP31" s="56"/>
+    </row>
+    <row r="32" spans="1:68" s="44" customFormat="1" ht="31" customHeight="1">
       <c r="A32" s="176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" s="142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="143"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="146">
+        <v>113</v>
+      </c>
+      <c r="E32" s="154"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148" t="str">
+      <c r="K32" s="147"/>
+      <c r="L32" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
@@ -6804,34 +6909,36 @@
       <c r="BL32" s="56"/>
       <c r="BM32" s="56"/>
       <c r="BN32" s="56"/>
-    </row>
-    <row r="33" spans="1:66" s="44" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO32" s="56"/>
+      <c r="BP32" s="56"/>
+    </row>
+    <row r="33" spans="1:68" s="44" customFormat="1" ht="31" customHeight="1">
       <c r="A33" s="176" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" s="142" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C33" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="143"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="146">
+        <v>113</v>
+      </c>
+      <c r="E33" s="154"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I33" s="147"/>
-      <c r="J33" s="148" t="str">
+      <c r="K33" s="147"/>
+      <c r="L33" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
       <c r="M33" s="56"/>
       <c r="N33" s="56"/>
       <c r="O33" s="56"/>
@@ -6886,35 +6993,37 @@
       <c r="BL33" s="56"/>
       <c r="BM33" s="56"/>
       <c r="BN33" s="56"/>
-    </row>
-    <row r="34" spans="1:66" s="44" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO33" s="56"/>
+      <c r="BP33" s="56"/>
+    </row>
+    <row r="34" spans="1:68" s="44" customFormat="1" ht="31" customHeight="1">
       <c r="A34" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
       </c>
       <c r="B34" s="142" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="143"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="146">
+        <v>113</v>
+      </c>
+      <c r="E34" s="154"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I34" s="147"/>
-      <c r="J34" s="148" t="str">
+      <c r="K34" s="147"/>
+      <c r="L34" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
       <c r="M34" s="56"/>
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
@@ -6969,35 +7078,37 @@
       <c r="BL34" s="56"/>
       <c r="BM34" s="56"/>
       <c r="BN34" s="56"/>
-    </row>
-    <row r="35" spans="1:66" s="44" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO34" s="56"/>
+      <c r="BP34" s="56"/>
+    </row>
+    <row r="35" spans="1:68" s="44" customFormat="1" ht="31" customHeight="1">
       <c r="A35" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
       </c>
       <c r="B35" s="142" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="163" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="143"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="146">
+        <v>113</v>
+      </c>
+      <c r="E35" s="154"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I35" s="147"/>
-      <c r="J35" s="148" t="str">
+      <c r="K35" s="147"/>
+      <c r="L35" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
       <c r="M35" s="56"/>
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
@@ -7052,35 +7163,37 @@
       <c r="BL35" s="56"/>
       <c r="BM35" s="56"/>
       <c r="BN35" s="56"/>
-    </row>
-    <row r="36" spans="1:66" s="44" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO35" s="56"/>
+      <c r="BP35" s="56"/>
+    </row>
+    <row r="36" spans="1:68" s="44" customFormat="1" ht="31" customHeight="1">
       <c r="A36" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.4</v>
       </c>
       <c r="B36" s="142" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36" s="163" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="143"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="146">
+        <v>113</v>
+      </c>
+      <c r="E36" s="154"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I36" s="147"/>
-      <c r="J36" s="148" t="str">
+      <c r="K36" s="147"/>
+      <c r="L36" s="148" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
       <c r="M36" s="56"/>
       <c r="N36" s="56"/>
       <c r="O36" s="56"/>
@@ -7135,33 +7248,35 @@
       <c r="BL36" s="56"/>
       <c r="BM36" s="56"/>
       <c r="BN36" s="56"/>
-    </row>
-    <row r="37" spans="1:66" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO36" s="56"/>
+      <c r="BP36" s="56"/>
+    </row>
+    <row r="37" spans="1:68" s="42" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="133" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
       <c r="B37" s="134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="162"/>
       <c r="D37" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="135"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137" t="str">
+        <v>112</v>
+      </c>
+      <c r="E37" s="155"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="H37" s="138"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="140" t="str">
+      <c r="J37" s="138"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="140" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
       <c r="M37" s="58"/>
       <c r="N37" s="58"/>
       <c r="O37" s="58"/>
@@ -7216,36 +7331,38 @@
       <c r="BL37" s="58"/>
       <c r="BM37" s="58"/>
       <c r="BN37" s="58"/>
-    </row>
-    <row r="38" spans="1:66" s="44" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO37" s="58"/>
+      <c r="BP37" s="58"/>
+    </row>
+    <row r="38" spans="1:68" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
       <c r="B38" s="142" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C38" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="166">
+        <v>112</v>
+      </c>
+      <c r="E38" s="154"/>
+      <c r="F38" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="166">
         <v>43852</v>
       </c>
-      <c r="G38" s="178"/>
-      <c r="H38" s="146">
+      <c r="H38" s="166"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I38" s="147"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="148"/>
       <c r="M38" s="56"/>
       <c r="N38" s="56"/>
       <c r="O38" s="56"/>
@@ -7300,37 +7417,39 @@
       <c r="BL38" s="56"/>
       <c r="BM38" s="56"/>
       <c r="BN38" s="56"/>
-    </row>
-    <row r="39" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO38" s="56"/>
+      <c r="BP38" s="56"/>
+    </row>
+    <row r="39" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A39" s="141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" s="142" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C39" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="166">
+        <v>112</v>
+      </c>
+      <c r="E39" s="154"/>
+      <c r="F39" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="166">
         <v>43852</v>
       </c>
-      <c r="G39" s="178">
+      <c r="H39" s="166"/>
+      <c r="I39" s="178">
         <v>43854</v>
       </c>
-      <c r="H39" s="146">
+      <c r="J39" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="148"/>
       <c r="M39" s="56"/>
       <c r="N39" s="56"/>
       <c r="O39" s="56"/>
@@ -7385,37 +7504,39 @@
       <c r="BL39" s="56"/>
       <c r="BM39" s="56"/>
       <c r="BN39" s="56"/>
-    </row>
-    <row r="40" spans="1:66" s="44" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO39" s="56"/>
+      <c r="BP39" s="56"/>
+    </row>
+    <row r="40" spans="1:68" s="44" customFormat="1" ht="32" customHeight="1">
       <c r="A40" s="141" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B40" s="142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C40" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="166">
+        <v>112</v>
+      </c>
+      <c r="E40" s="154"/>
+      <c r="F40" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="166">
         <v>43853</v>
       </c>
-      <c r="G40" s="178">
+      <c r="H40" s="166"/>
+      <c r="I40" s="178">
         <v>43860</v>
       </c>
-      <c r="H40" s="146">
+      <c r="J40" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>7</v>
       </c>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="148"/>
       <c r="M40" s="56"/>
       <c r="N40" s="56"/>
       <c r="O40" s="56"/>
@@ -7470,37 +7591,39 @@
       <c r="BL40" s="56"/>
       <c r="BM40" s="56"/>
       <c r="BN40" s="56"/>
-    </row>
-    <row r="41" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO40" s="56"/>
+      <c r="BP40" s="56"/>
+    </row>
+    <row r="41" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="141" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B41" s="142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="143" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="166">
+        <v>112</v>
+      </c>
+      <c r="E41" s="154"/>
+      <c r="F41" s="143" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="166">
         <v>43853</v>
       </c>
-      <c r="G41" s="178">
+      <c r="H41" s="166"/>
+      <c r="I41" s="178">
         <v>43860</v>
       </c>
-      <c r="H41" s="146">
+      <c r="J41" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>7</v>
       </c>
-      <c r="I41" s="147"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="148"/>
       <c r="M41" s="56"/>
       <c r="N41" s="56"/>
       <c r="O41" s="56"/>
@@ -7555,37 +7678,39 @@
       <c r="BL41" s="56"/>
       <c r="BM41" s="56"/>
       <c r="BN41" s="56"/>
-    </row>
-    <row r="42" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO41" s="56"/>
+      <c r="BP41" s="56"/>
+    </row>
+    <row r="42" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A42" s="141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" s="142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="143" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="166">
+        <v>112</v>
+      </c>
+      <c r="E42" s="154"/>
+      <c r="F42" s="143" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="166">
         <v>43860</v>
       </c>
-      <c r="G42" s="178">
+      <c r="H42" s="166"/>
+      <c r="I42" s="178">
         <v>43867</v>
       </c>
-      <c r="H42" s="146">
+      <c r="J42" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>14</v>
       </c>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="148"/>
       <c r="M42" s="56"/>
       <c r="N42" s="56"/>
       <c r="O42" s="56"/>
@@ -7640,38 +7765,40 @@
       <c r="BL42" s="56"/>
       <c r="BM42" s="56"/>
       <c r="BN42" s="56"/>
-    </row>
-    <row r="43" spans="1:66" s="44" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO42" s="56"/>
+      <c r="BP42" s="56"/>
+    </row>
+    <row r="43" spans="1:68" s="44" customFormat="1" ht="32" customHeight="1">
       <c r="A43" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
       </c>
       <c r="B43" s="142" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" s="163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="143">
+        <v>112</v>
+      </c>
+      <c r="E43" s="154"/>
+      <c r="F43" s="143">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F43" s="166">
+      <c r="G43" s="166">
         <v>43852</v>
       </c>
-      <c r="G43" s="178">
+      <c r="H43" s="166"/>
+      <c r="I43" s="178">
         <v>43874</v>
       </c>
-      <c r="H43" s="146">
+      <c r="J43" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>21</v>
       </c>
-      <c r="I43" s="147"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="148"/>
       <c r="M43" s="56"/>
       <c r="N43" s="56"/>
       <c r="O43" s="56"/>
@@ -7726,32 +7853,34 @@
       <c r="BL43" s="56"/>
       <c r="BM43" s="56"/>
       <c r="BN43" s="56"/>
-    </row>
-    <row r="44" spans="1:66" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO43" s="56"/>
+      <c r="BP43" s="56"/>
+    </row>
+    <row r="44" spans="1:68" s="42" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="133">
         <v>6</v>
       </c>
       <c r="B44" s="134" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C44" s="162"/>
       <c r="D44" s="155" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="135"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137" t="str">
-        <f t="shared" ref="G44" si="13">IF(ISBLANK(F44)," - ",IF(H44=0,F44,F44+H44-1))</f>
+        <v>123</v>
+      </c>
+      <c r="E44" s="155"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137" t="str">
+        <f t="shared" ref="I44" si="13">IF(ISBLANK(G44)," - ",IF(J44=0,G44,G44+J44-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="H44" s="138"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="140" t="str">
-        <f t="shared" ref="J44" si="14">IF(OR(G44=0,F44=0)," - ",NETWORKDAYS(F44,G44))</f>
+      <c r="J44" s="138"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="140" t="str">
+        <f t="shared" ref="L44" si="14">IF(OR(I44=0,G44=0)," - ",NETWORKDAYS(G44,I44))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="58"/>
       <c r="O44" s="58"/>
@@ -7806,25 +7935,27 @@
       <c r="BL44" s="58"/>
       <c r="BM44" s="58"/>
       <c r="BN44" s="58"/>
-    </row>
-    <row r="45" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO44" s="58"/>
+      <c r="BP44" s="58"/>
+    </row>
+    <row r="45" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="141"/>
       <c r="B45" s="142" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="163"/>
       <c r="D45" s="154"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="146">
+      <c r="E45" s="154"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I45" s="147"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="148"/>
       <c r="M45" s="56"/>
       <c r="N45" s="56"/>
       <c r="O45" s="56"/>
@@ -7879,191 +8010,184 @@
       <c r="BL45" s="56"/>
       <c r="BM45" s="56"/>
       <c r="BN45" s="56"/>
-    </row>
-    <row r="46" spans="1:66" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133">
+      <c r="BO45" s="56"/>
+      <c r="BP45" s="56"/>
+    </row>
+    <row r="46" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="141"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="56"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="56"/>
+      <c r="AP46" s="56"/>
+      <c r="AQ46" s="56"/>
+      <c r="AR46" s="56"/>
+      <c r="AS46" s="56"/>
+      <c r="AT46" s="56"/>
+      <c r="AU46" s="56"/>
+      <c r="AV46" s="56"/>
+      <c r="AW46" s="56"/>
+      <c r="AX46" s="56"/>
+      <c r="AY46" s="56"/>
+      <c r="AZ46" s="56"/>
+      <c r="BA46" s="56"/>
+      <c r="BB46" s="56"/>
+      <c r="BC46" s="56"/>
+      <c r="BD46" s="56"/>
+      <c r="BE46" s="56"/>
+      <c r="BF46" s="56"/>
+      <c r="BG46" s="56"/>
+      <c r="BH46" s="56"/>
+      <c r="BI46" s="56"/>
+      <c r="BJ46" s="56"/>
+      <c r="BK46" s="56"/>
+      <c r="BL46" s="56"/>
+      <c r="BM46" s="56"/>
+      <c r="BN46" s="56"/>
+      <c r="BO46" s="56"/>
+      <c r="BP46" s="56"/>
+    </row>
+    <row r="47" spans="1:68" s="42" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="133">
         <v>7</v>
       </c>
-      <c r="B46" s="134" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="162"/>
-      <c r="D46" s="155" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="135"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="58"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
-      <c r="W46" s="58"/>
-      <c r="X46" s="58"/>
-      <c r="Y46" s="58"/>
-      <c r="Z46" s="58"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="58"/>
-      <c r="AE46" s="58"/>
-      <c r="AF46" s="58"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="58"/>
-      <c r="AI46" s="58"/>
-      <c r="AJ46" s="58"/>
-      <c r="AK46" s="58"/>
-      <c r="AL46" s="58"/>
-      <c r="AM46" s="58"/>
-      <c r="AN46" s="58"/>
-      <c r="AO46" s="58"/>
-      <c r="AP46" s="58"/>
-      <c r="AQ46" s="58"/>
-      <c r="AR46" s="58"/>
-      <c r="AS46" s="58"/>
-      <c r="AT46" s="58"/>
-      <c r="AU46" s="58"/>
-      <c r="AV46" s="58"/>
-      <c r="AW46" s="58"/>
-      <c r="AX46" s="58"/>
-      <c r="AY46" s="58"/>
-      <c r="AZ46" s="58"/>
-      <c r="BA46" s="58"/>
-      <c r="BB46" s="58"/>
-      <c r="BC46" s="58"/>
-      <c r="BD46" s="58"/>
-      <c r="BE46" s="58"/>
-      <c r="BF46" s="58"/>
-      <c r="BG46" s="58"/>
-      <c r="BH46" s="58"/>
-      <c r="BI46" s="58"/>
-      <c r="BJ46" s="58"/>
-      <c r="BK46" s="58"/>
-      <c r="BL46" s="58"/>
-      <c r="BM46" s="58"/>
-      <c r="BN46" s="58"/>
-    </row>
-    <row r="47" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="141" t="str">
+      <c r="B47" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="162"/>
+      <c r="D47" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="155"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58"/>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="58"/>
+      <c r="AK47" s="58"/>
+      <c r="AL47" s="58"/>
+      <c r="AM47" s="58"/>
+      <c r="AN47" s="58"/>
+      <c r="AO47" s="58"/>
+      <c r="AP47" s="58"/>
+      <c r="AQ47" s="58"/>
+      <c r="AR47" s="58"/>
+      <c r="AS47" s="58"/>
+      <c r="AT47" s="58"/>
+      <c r="AU47" s="58"/>
+      <c r="AV47" s="58"/>
+      <c r="AW47" s="58"/>
+      <c r="AX47" s="58"/>
+      <c r="AY47" s="58"/>
+      <c r="AZ47" s="58"/>
+      <c r="BA47" s="58"/>
+      <c r="BB47" s="58"/>
+      <c r="BC47" s="58"/>
+      <c r="BD47" s="58"/>
+      <c r="BE47" s="58"/>
+      <c r="BF47" s="58"/>
+      <c r="BG47" s="58"/>
+      <c r="BH47" s="58"/>
+      <c r="BI47" s="58"/>
+      <c r="BJ47" s="58"/>
+      <c r="BK47" s="58"/>
+      <c r="BL47" s="58"/>
+      <c r="BM47" s="58"/>
+      <c r="BN47" s="58"/>
+      <c r="BO47" s="58"/>
+      <c r="BP47" s="58"/>
+    </row>
+    <row r="48" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
-      <c r="B47" s="142" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="143"/>
-      <c r="F47" s="166">
+      <c r="B48" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="163" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="154"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="166">
         <v>43852</v>
       </c>
-      <c r="G47" s="178">
+      <c r="H48" s="166"/>
+      <c r="I48" s="178">
         <v>43852</v>
       </c>
-      <c r="H47" s="146">
+      <c r="J48" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I47" s="147"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
-      <c r="AE47" s="56"/>
-      <c r="AF47" s="56"/>
-      <c r="AG47" s="56"/>
-      <c r="AH47" s="56"/>
-      <c r="AI47" s="56"/>
-      <c r="AJ47" s="56"/>
-      <c r="AK47" s="56"/>
-      <c r="AL47" s="56"/>
-      <c r="AM47" s="56"/>
-      <c r="AN47" s="56"/>
-      <c r="AO47" s="56"/>
-      <c r="AP47" s="56"/>
-      <c r="AQ47" s="56"/>
-      <c r="AR47" s="56"/>
-      <c r="AS47" s="56"/>
-      <c r="AT47" s="56"/>
-      <c r="AU47" s="56"/>
-      <c r="AV47" s="56"/>
-      <c r="AW47" s="56"/>
-      <c r="AX47" s="56"/>
-      <c r="AY47" s="56"/>
-      <c r="AZ47" s="56"/>
-      <c r="BA47" s="56"/>
-      <c r="BB47" s="56"/>
-      <c r="BC47" s="56"/>
-      <c r="BD47" s="56"/>
-      <c r="BE47" s="56"/>
-      <c r="BF47" s="56"/>
-      <c r="BG47" s="56"/>
-      <c r="BH47" s="56"/>
-      <c r="BI47" s="56"/>
-      <c r="BJ47" s="56"/>
-      <c r="BK47" s="56"/>
-      <c r="BL47" s="56"/>
-      <c r="BM47" s="56"/>
-      <c r="BN47" s="56"/>
-    </row>
-    <row r="48" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="141">
-        <v>7.2</v>
-      </c>
-      <c r="B48" s="142" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="143"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="178">
-        <v>43902</v>
-      </c>
-      <c r="H48" s="146">
-        <f t="shared" ca="1" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="I48" s="147"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="148"/>
       <c r="M48" s="56"/>
       <c r="N48" s="56"/>
       <c r="O48" s="56"/>
@@ -8118,34 +8242,35 @@
       <c r="BL48" s="56"/>
       <c r="BM48" s="56"/>
       <c r="BN48" s="56"/>
-    </row>
-    <row r="49" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="141" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.3</v>
-      </c>
-      <c r="B49" s="179" t="s">
-        <v>160</v>
+      <c r="BO48" s="56"/>
+      <c r="BP48" s="56"/>
+    </row>
+    <row r="49" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="141">
+        <v>7.2</v>
+      </c>
+      <c r="B49" s="142" t="s">
+        <v>156</v>
       </c>
       <c r="C49" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="143"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="178">
-        <v>43901</v>
-      </c>
-      <c r="H49" s="146">
+        <v>119</v>
+      </c>
+      <c r="D49" s="167" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="154"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="178">
+        <v>43902</v>
+      </c>
+      <c r="J49" s="146">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="I49" s="147"/>
-      <c r="J49" s="148"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
+        <v>49</v>
+      </c>
+      <c r="K49" s="147"/>
+      <c r="L49" s="148"/>
       <c r="M49" s="56"/>
       <c r="N49" s="56"/>
       <c r="O49" s="56"/>
@@ -8200,31 +8325,36 @@
       <c r="BL49" s="56"/>
       <c r="BM49" s="56"/>
       <c r="BN49" s="56"/>
-    </row>
-    <row r="50" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="141"/>
+      <c r="BO49" s="56"/>
+      <c r="BP49" s="56"/>
+    </row>
+    <row r="50" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="141" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.3</v>
+      </c>
       <c r="B50" s="179" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C50" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="143"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="178">
-        <v>43908</v>
-      </c>
-      <c r="H50" s="146">
+        <v>119</v>
+      </c>
+      <c r="D50" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="154"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="178">
+        <v>43901</v>
+      </c>
+      <c r="J50" s="146">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="I50" s="147"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
+        <v>48</v>
+      </c>
+      <c r="K50" s="147"/>
+      <c r="L50" s="148"/>
       <c r="M50" s="56"/>
       <c r="N50" s="56"/>
       <c r="O50" s="56"/>
@@ -8279,31 +8409,33 @@
       <c r="BL50" s="56"/>
       <c r="BM50" s="56"/>
       <c r="BN50" s="56"/>
-    </row>
-    <row r="51" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="141" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="142" t="s">
+      <c r="BO50" s="56"/>
+      <c r="BP50" s="56"/>
+    </row>
+    <row r="51" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="141"/>
+      <c r="B51" s="179" t="s">
         <v>161</v>
       </c>
       <c r="C51" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="168" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="143"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="146">
+        <v>119</v>
+      </c>
+      <c r="D51" s="167" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="154"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="166"/>
+      <c r="I51" s="178">
+        <v>43908</v>
+      </c>
+      <c r="J51" s="146">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="147"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
+        <v>55</v>
+      </c>
+      <c r="K51" s="147"/>
+      <c r="L51" s="148"/>
       <c r="M51" s="56"/>
       <c r="N51" s="56"/>
       <c r="O51" s="56"/>
@@ -8358,29 +8490,33 @@
       <c r="BL51" s="56"/>
       <c r="BM51" s="56"/>
       <c r="BN51" s="56"/>
-    </row>
-    <row r="52" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BO51" s="56"/>
+      <c r="BP51" s="56"/>
+    </row>
+    <row r="52" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="A52" s="141" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" s="142" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="C52" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="154"/>
-      <c r="E52" s="143"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="146">
+        <v>119</v>
+      </c>
+      <c r="D52" s="168" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="154"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I52" s="147"/>
-      <c r="J52" s="148"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="148"/>
       <c r="M52" s="56"/>
       <c r="N52" s="56"/>
       <c r="O52" s="56"/>
@@ -8435,30 +8571,31 @@
       <c r="BL52" s="56"/>
       <c r="BM52" s="56"/>
       <c r="BN52" s="56"/>
-    </row>
-    <row r="53" spans="1:66" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="141" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+      <c r="BO52" s="56"/>
+      <c r="BP52" s="56"/>
+    </row>
+    <row r="53" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="A53" s="141" t="s">
+        <v>108</v>
       </c>
       <c r="B53" s="142" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53" s="154"/>
-      <c r="E53" s="143"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="146">
+      <c r="E53" s="154"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="166"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="146">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="I53" s="147"/>
-      <c r="J53" s="148"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="148"/>
       <c r="M53" s="56"/>
       <c r="N53" s="56"/>
       <c r="O53" s="56"/>
@@ -8513,20 +8650,32 @@
       <c r="BL53" s="56"/>
       <c r="BM53" s="56"/>
       <c r="BN53" s="56"/>
-    </row>
-    <row r="54" spans="1:66" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A54" s="126"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
+      <c r="BO53" s="56"/>
+      <c r="BP53" s="56"/>
+    </row>
+    <row r="54" spans="1:68" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="A54" s="141" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B54" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="163" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="146">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="147"/>
+      <c r="L54" s="148"/>
       <c r="M54" s="56"/>
       <c r="N54" s="56"/>
       <c r="O54" s="56"/>
@@ -8581,20 +8730,22 @@
       <c r="BL54" s="56"/>
       <c r="BM54" s="56"/>
       <c r="BN54" s="56"/>
-    </row>
-    <row r="55" spans="1:66" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
+      <c r="BO54" s="56"/>
+      <c r="BP54" s="56"/>
+    </row>
+    <row r="55" spans="1:68" s="50" customFormat="1" ht="12">
+      <c r="A55" s="126"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="132"/>
       <c r="M55" s="56"/>
       <c r="N55" s="56"/>
       <c r="O55" s="56"/>
@@ -8649,88 +8800,92 @@
       <c r="BL55" s="56"/>
       <c r="BM55" s="56"/>
       <c r="BN55" s="56"/>
-    </row>
-    <row r="56" spans="1:66" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A56" s="101"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="106"/>
-      <c r="O56" s="106"/>
-      <c r="P56" s="106"/>
-      <c r="Q56" s="106"/>
-      <c r="R56" s="106"/>
-      <c r="S56" s="106"/>
-      <c r="T56" s="106"/>
-      <c r="U56" s="106"/>
-      <c r="V56" s="106"/>
-      <c r="W56" s="106"/>
-      <c r="X56" s="106"/>
-      <c r="Y56" s="106"/>
-      <c r="Z56" s="106"/>
-      <c r="AA56" s="106"/>
-      <c r="AB56" s="106"/>
-      <c r="AC56" s="106"/>
-      <c r="AD56" s="106"/>
-      <c r="AE56" s="106"/>
-      <c r="AF56" s="106"/>
-      <c r="AG56" s="106"/>
-      <c r="AH56" s="106"/>
-      <c r="AI56" s="106"/>
-      <c r="AJ56" s="106"/>
-      <c r="AK56" s="106"/>
-      <c r="AL56" s="106"/>
-      <c r="AM56" s="106"/>
-      <c r="AN56" s="106"/>
-      <c r="AO56" s="106"/>
-      <c r="AP56" s="106"/>
-      <c r="AQ56" s="106"/>
-      <c r="AR56" s="106"/>
-      <c r="AS56" s="106"/>
-      <c r="AT56" s="106"/>
-      <c r="AU56" s="106"/>
-      <c r="AV56" s="106"/>
-      <c r="AW56" s="106"/>
-      <c r="AX56" s="106"/>
-      <c r="AY56" s="106"/>
-      <c r="AZ56" s="106"/>
-      <c r="BA56" s="106"/>
-      <c r="BB56" s="106"/>
-      <c r="BC56" s="106"/>
-      <c r="BD56" s="106"/>
-      <c r="BE56" s="106"/>
-      <c r="BF56" s="106"/>
-      <c r="BG56" s="106"/>
-      <c r="BH56" s="106"/>
-      <c r="BI56" s="106"/>
-      <c r="BJ56" s="106"/>
-      <c r="BK56" s="106"/>
-      <c r="BL56" s="106"/>
-      <c r="BM56" s="106"/>
-      <c r="BN56" s="106"/>
-    </row>
-    <row r="57" spans="1:66" s="111" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
+      <c r="BO55" s="56"/>
+      <c r="BP55" s="56"/>
+    </row>
+    <row r="56" spans="1:68" s="50" customFormat="1" ht="12">
+      <c r="A56" s="43"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="56"/>
+      <c r="AC56" s="56"/>
+      <c r="AD56" s="56"/>
+      <c r="AE56" s="56"/>
+      <c r="AF56" s="56"/>
+      <c r="AG56" s="56"/>
+      <c r="AH56" s="56"/>
+      <c r="AI56" s="56"/>
+      <c r="AJ56" s="56"/>
+      <c r="AK56" s="56"/>
+      <c r="AL56" s="56"/>
+      <c r="AM56" s="56"/>
+      <c r="AN56" s="56"/>
+      <c r="AO56" s="56"/>
+      <c r="AP56" s="56"/>
+      <c r="AQ56" s="56"/>
+      <c r="AR56" s="56"/>
+      <c r="AS56" s="56"/>
+      <c r="AT56" s="56"/>
+      <c r="AU56" s="56"/>
+      <c r="AV56" s="56"/>
+      <c r="AW56" s="56"/>
+      <c r="AX56" s="56"/>
+      <c r="AY56" s="56"/>
+      <c r="AZ56" s="56"/>
+      <c r="BA56" s="56"/>
+      <c r="BB56" s="56"/>
+      <c r="BC56" s="56"/>
+      <c r="BD56" s="56"/>
+      <c r="BE56" s="56"/>
+      <c r="BF56" s="56"/>
+      <c r="BG56" s="56"/>
+      <c r="BH56" s="56"/>
+      <c r="BI56" s="56"/>
+      <c r="BJ56" s="56"/>
+      <c r="BK56" s="56"/>
+      <c r="BL56" s="56"/>
+      <c r="BM56" s="56"/>
+      <c r="BN56" s="56"/>
+      <c r="BO56" s="56"/>
+      <c r="BP56" s="56"/>
+    </row>
+    <row r="57" spans="1:68" s="107" customFormat="1">
+      <c r="A57" s="101"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
       <c r="M57" s="106"/>
       <c r="N57" s="106"/>
       <c r="O57" s="106"/>
@@ -8785,20 +8940,22 @@
       <c r="BL57" s="106"/>
       <c r="BM57" s="106"/>
       <c r="BN57" s="106"/>
-    </row>
-    <row r="58" spans="1:66" s="111" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A58" s="112"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
+      <c r="BO57" s="106"/>
+      <c r="BP57" s="106"/>
+    </row>
+    <row r="58" spans="1:68" s="111" customFormat="1" ht="12">
+      <c r="A58" s="108"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+      <c r="L58" s="109"/>
       <c r="M58" s="106"/>
       <c r="N58" s="106"/>
       <c r="O58" s="106"/>
@@ -8853,20 +9010,22 @@
       <c r="BL58" s="106"/>
       <c r="BM58" s="106"/>
       <c r="BN58" s="106"/>
-    </row>
-    <row r="59" spans="1:66" s="111" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="119"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="118"/>
+      <c r="BO58" s="106"/>
+      <c r="BP58" s="106"/>
+    </row>
+    <row r="59" spans="1:68" s="111" customFormat="1" ht="14">
+      <c r="A59" s="112"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="115"/>
+      <c r="I59" s="116"/>
       <c r="J59" s="117"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="117"/>
       <c r="M59" s="106"/>
       <c r="N59" s="106"/>
       <c r="O59" s="106"/>
@@ -8921,20 +9080,22 @@
       <c r="BL59" s="106"/>
       <c r="BM59" s="106"/>
       <c r="BN59" s="106"/>
-    </row>
-    <row r="60" spans="1:66" s="111" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="BO59" s="106"/>
+      <c r="BP59" s="106"/>
+    </row>
+    <row r="60" spans="1:68" s="111" customFormat="1" ht="12">
       <c r="A60" s="119"/>
-      <c r="B60" s="121"/>
+      <c r="B60" s="120"/>
       <c r="C60" s="157"/>
       <c r="D60" s="157"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="118"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="116"/>
       <c r="J60" s="117"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
+      <c r="K60" s="118"/>
+      <c r="L60" s="117"/>
       <c r="M60" s="106"/>
       <c r="N60" s="106"/>
       <c r="O60" s="106"/>
@@ -8989,20 +9150,22 @@
       <c r="BL60" s="106"/>
       <c r="BM60" s="106"/>
       <c r="BN60" s="106"/>
-    </row>
-    <row r="61" spans="1:66" s="111" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="BO60" s="106"/>
+      <c r="BP60" s="106"/>
+    </row>
+    <row r="61" spans="1:68" s="111" customFormat="1" ht="12">
       <c r="A61" s="119"/>
       <c r="B61" s="121"/>
       <c r="C61" s="157"/>
       <c r="D61" s="157"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="118"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="116"/>
       <c r="J61" s="117"/>
-      <c r="K61" s="106"/>
-      <c r="L61" s="106"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="117"/>
       <c r="M61" s="106"/>
       <c r="N61" s="106"/>
       <c r="O61" s="106"/>
@@ -9057,101 +9220,175 @@
       <c r="BL61" s="106"/>
       <c r="BM61" s="106"/>
       <c r="BN61" s="106"/>
-    </row>
-    <row r="62" spans="1:66" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
-      <c r="J62" s="123"/>
-      <c r="K62" s="123"/>
-      <c r="L62" s="123"/>
-      <c r="M62" s="123"/>
-      <c r="N62" s="123"/>
-      <c r="O62" s="123"/>
-      <c r="P62" s="123"/>
-      <c r="Q62" s="123"/>
-      <c r="R62" s="123"/>
-      <c r="S62" s="123"/>
-      <c r="T62" s="123"/>
-      <c r="U62" s="123"/>
-      <c r="V62" s="123"/>
-      <c r="W62" s="123"/>
-      <c r="X62" s="123"/>
-      <c r="Y62" s="123"/>
-      <c r="Z62" s="123"/>
-      <c r="AA62" s="123"/>
-      <c r="AB62" s="123"/>
-      <c r="AC62" s="123"/>
-      <c r="AD62" s="123"/>
-      <c r="AE62" s="123"/>
-      <c r="AF62" s="123"/>
-      <c r="AG62" s="123"/>
-      <c r="AH62" s="123"/>
-      <c r="AI62" s="123"/>
-      <c r="AJ62" s="123"/>
-      <c r="AK62" s="123"/>
-      <c r="AL62" s="123"/>
-      <c r="AM62" s="123"/>
-      <c r="AN62" s="123"/>
-      <c r="AO62" s="123"/>
-      <c r="AP62" s="123"/>
-      <c r="AQ62" s="123"/>
-      <c r="AR62" s="123"/>
-      <c r="AS62" s="123"/>
-      <c r="AT62" s="123"/>
-      <c r="AU62" s="123"/>
-      <c r="AV62" s="123"/>
-      <c r="AW62" s="123"/>
-      <c r="AX62" s="123"/>
-      <c r="AY62" s="123"/>
-      <c r="AZ62" s="123"/>
-      <c r="BA62" s="123"/>
-      <c r="BB62" s="123"/>
-      <c r="BC62" s="123"/>
-      <c r="BD62" s="123"/>
-      <c r="BE62" s="123"/>
-      <c r="BF62" s="123"/>
-      <c r="BG62" s="123"/>
-      <c r="BH62" s="123"/>
-      <c r="BI62" s="123"/>
-      <c r="BJ62" s="123"/>
-      <c r="BK62" s="123"/>
-      <c r="BL62" s="123"/>
-      <c r="BM62" s="123"/>
-      <c r="BN62" s="123"/>
+      <c r="BO61" s="106"/>
+      <c r="BP61" s="106"/>
+    </row>
+    <row r="62" spans="1:68" s="111" customFormat="1" ht="12">
+      <c r="A62" s="119"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="115"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="117"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="106"/>
+      <c r="P62" s="106"/>
+      <c r="Q62" s="106"/>
+      <c r="R62" s="106"/>
+      <c r="S62" s="106"/>
+      <c r="T62" s="106"/>
+      <c r="U62" s="106"/>
+      <c r="V62" s="106"/>
+      <c r="W62" s="106"/>
+      <c r="X62" s="106"/>
+      <c r="Y62" s="106"/>
+      <c r="Z62" s="106"/>
+      <c r="AA62" s="106"/>
+      <c r="AB62" s="106"/>
+      <c r="AC62" s="106"/>
+      <c r="AD62" s="106"/>
+      <c r="AE62" s="106"/>
+      <c r="AF62" s="106"/>
+      <c r="AG62" s="106"/>
+      <c r="AH62" s="106"/>
+      <c r="AI62" s="106"/>
+      <c r="AJ62" s="106"/>
+      <c r="AK62" s="106"/>
+      <c r="AL62" s="106"/>
+      <c r="AM62" s="106"/>
+      <c r="AN62" s="106"/>
+      <c r="AO62" s="106"/>
+      <c r="AP62" s="106"/>
+      <c r="AQ62" s="106"/>
+      <c r="AR62" s="106"/>
+      <c r="AS62" s="106"/>
+      <c r="AT62" s="106"/>
+      <c r="AU62" s="106"/>
+      <c r="AV62" s="106"/>
+      <c r="AW62" s="106"/>
+      <c r="AX62" s="106"/>
+      <c r="AY62" s="106"/>
+      <c r="AZ62" s="106"/>
+      <c r="BA62" s="106"/>
+      <c r="BB62" s="106"/>
+      <c r="BC62" s="106"/>
+      <c r="BD62" s="106"/>
+      <c r="BE62" s="106"/>
+      <c r="BF62" s="106"/>
+      <c r="BG62" s="106"/>
+      <c r="BH62" s="106"/>
+      <c r="BI62" s="106"/>
+      <c r="BJ62" s="106"/>
+      <c r="BK62" s="106"/>
+      <c r="BL62" s="106"/>
+      <c r="BM62" s="106"/>
+      <c r="BN62" s="106"/>
+      <c r="BO62" s="106"/>
+      <c r="BP62" s="106"/>
+    </row>
+    <row r="63" spans="1:68" s="125" customFormat="1">
+      <c r="A63" s="122"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="123"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="123"/>
+      <c r="L63" s="123"/>
+      <c r="M63" s="123"/>
+      <c r="N63" s="123"/>
+      <c r="O63" s="123"/>
+      <c r="P63" s="123"/>
+      <c r="Q63" s="123"/>
+      <c r="R63" s="123"/>
+      <c r="S63" s="123"/>
+      <c r="T63" s="123"/>
+      <c r="U63" s="123"/>
+      <c r="V63" s="123"/>
+      <c r="W63" s="123"/>
+      <c r="X63" s="123"/>
+      <c r="Y63" s="123"/>
+      <c r="Z63" s="123"/>
+      <c r="AA63" s="123"/>
+      <c r="AB63" s="123"/>
+      <c r="AC63" s="123"/>
+      <c r="AD63" s="123"/>
+      <c r="AE63" s="123"/>
+      <c r="AF63" s="123"/>
+      <c r="AG63" s="123"/>
+      <c r="AH63" s="123"/>
+      <c r="AI63" s="123"/>
+      <c r="AJ63" s="123"/>
+      <c r="AK63" s="123"/>
+      <c r="AL63" s="123"/>
+      <c r="AM63" s="123"/>
+      <c r="AN63" s="123"/>
+      <c r="AO63" s="123"/>
+      <c r="AP63" s="123"/>
+      <c r="AQ63" s="123"/>
+      <c r="AR63" s="123"/>
+      <c r="AS63" s="123"/>
+      <c r="AT63" s="123"/>
+      <c r="AU63" s="123"/>
+      <c r="AV63" s="123"/>
+      <c r="AW63" s="123"/>
+      <c r="AX63" s="123"/>
+      <c r="AY63" s="123"/>
+      <c r="AZ63" s="123"/>
+      <c r="BA63" s="123"/>
+      <c r="BB63" s="123"/>
+      <c r="BC63" s="123"/>
+      <c r="BD63" s="123"/>
+      <c r="BE63" s="123"/>
+      <c r="BF63" s="123"/>
+      <c r="BG63" s="123"/>
+      <c r="BH63" s="123"/>
+      <c r="BI63" s="123"/>
+      <c r="BJ63" s="123"/>
+      <c r="BK63" s="123"/>
+      <c r="BL63" s="123"/>
+      <c r="BM63" s="123"/>
+      <c r="BN63" s="123"/>
+      <c r="BO63" s="123"/>
+      <c r="BP63" s="123"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="20">
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="BJ4:BP4"/>
+    <mergeCell ref="BJ5:BP5"/>
+    <mergeCell ref="AO5:AU5"/>
+    <mergeCell ref="AV4:BB4"/>
+    <mergeCell ref="AV5:BB5"/>
+    <mergeCell ref="AO4:AU4"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="BC5:BI5"/>
+    <mergeCell ref="T5:Z5"/>
+    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="AA5:AG5"/>
+    <mergeCell ref="C5:I5"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="M1:AG1"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I8:I11 I31:I43 I29 I45:I61 I13:I20">
+  <conditionalFormatting sqref="K8:K11 K31:K43 K29 K45:K62 K13:K20">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9165,25 +9402,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN7">
+  <conditionalFormatting sqref="M6:BP7">
     <cfRule type="expression" dxfId="8" priority="64">
-      <formula>K$6=TODAY()</formula>
+      <formula>M$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN61">
+  <conditionalFormatting sqref="M8:BP62">
     <cfRule type="expression" dxfId="7" priority="67">
-      <formula>AND($F8&lt;=K$6,ROUNDDOWN(($G8-$F8+1)*$I8,0)+$F8-1&gt;=K$6)</formula>
+      <formula>AND($G8&lt;=M$6,ROUNDDOWN(($I8-$G8+1)*$K8,0)+$G8-1&gt;=M$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="68">
-      <formula>AND(NOT(ISBLANK($F8)),$F8&lt;=K$6,$G8&gt;=K$6)</formula>
+      <formula>AND(NOT(ISBLANK($G8)),$G8&lt;=M$6,$I8&gt;=M$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN11 K13:BN20 K31:BN43 K29:BN29 K45:BN61">
+  <conditionalFormatting sqref="M6:BP11 M13:BP20 M31:BP43 M29:BP29 M45:BP62">
     <cfRule type="expression" dxfId="5" priority="27">
-      <formula>K$6=TODAY()</formula>
+      <formula>M$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="K12">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9197,7 +9434,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="K30">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9211,17 +9448,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
+  <conditionalFormatting sqref="M12:BP12">
     <cfRule type="expression" dxfId="4" priority="17">
-      <formula>K$6=TODAY()</formula>
+      <formula>M$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:BN30">
+  <conditionalFormatting sqref="M30:BP30">
     <cfRule type="expression" dxfId="3" priority="13">
-      <formula>K$6=TODAY()</formula>
+      <formula>M$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I28">
+  <conditionalFormatting sqref="K22:K28">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9235,12 +9472,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:BN28">
+  <conditionalFormatting sqref="M22:BP28">
     <cfRule type="expression" dxfId="2" priority="9">
-      <formula>K$6=TODAY()</formula>
+      <formula>M$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="K21">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9254,12 +9491,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN21">
+  <conditionalFormatting sqref="M21:BP21">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>K$6=TODAY()</formula>
+      <formula>M$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="K44">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9273,19 +9510,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
+  <conditionalFormatting sqref="M44:BP44">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>K$6=TODAY()</formula>
+      <formula>M$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="K4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I9 A54:B55 F37 H37:I37" unlockedFormula="1"/>
+    <ignoredError sqref="K9 A55:B56 G37 J37:K37" unlockedFormula="1"/>
     <ignoredError sqref="A37" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
@@ -9299,13 +9536,13 @@
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>12</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>127000</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>27</xdr:col>
+                    <xdr:col>29</xdr:col>
                     <xdr:colOff>139700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
@@ -9334,7 +9571,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I8:I11 I31:I43 I29 I45:I61 I13:I20</xm:sqref>
+          <xm:sqref>K8:K11 K31:K43 K29 K45:K62 K13:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FDE91F2C-39A6-4416-8A22-AF8E18F411D1}">
@@ -9349,7 +9586,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I12</xm:sqref>
+          <xm:sqref>K12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D5F0D7CF-3DC7-40DC-9D12-D7F10514F430}">
@@ -9364,7 +9601,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I30</xm:sqref>
+          <xm:sqref>K30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA449B6A-013F-2143-A8F3-A735AC2DC8CD}">
@@ -9379,7 +9616,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:I28</xm:sqref>
+          <xm:sqref>K22:K28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA9D6DFC-6D12-9A47-BB3B-21EB23A85931}">
@@ -9394,7 +9631,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I21</xm:sqref>
+          <xm:sqref>K21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A3537781-CAEC-1148-8C1D-C62EB8C4BE3C}">
@@ -9409,7 +9646,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I44</xm:sqref>
+          <xm:sqref>K44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{3074D7A0-BE5E-8A40-9E25-5E8E3D32AA40}">
@@ -9428,7 +9665,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G9:G53</xm:sqref>
+          <xm:sqref>I9:I54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9445,256 +9682,256 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="90.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="7"/>
+    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="90.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
     </row>
-    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" s="76" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="20" customFormat="1">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A4" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="60">
+      <c r="B5" s="77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="B7" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" ht="14">
       <c r="B9" s="76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30">
       <c r="B11" s="75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="20" customFormat="1"/>
+    <row r="13" spans="1:3" ht="18">
       <c r="A13" s="191" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="191"/>
     </row>
-    <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" s="72" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="20" customFormat="1"/>
+    <row r="15" spans="1:3" s="72" customFormat="1" ht="18">
       <c r="A15" s="80"/>
       <c r="B15" s="78" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="72" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="72" customFormat="1" ht="18">
       <c r="A16" s="80"/>
       <c r="B16" s="79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" s="81"/>
       <c r="B17" s="79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="20" customFormat="1" ht="18">
       <c r="A18" s="81"/>
       <c r="B18" s="79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="32" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="32" customFormat="1" ht="18">
       <c r="A19" s="84"/>
       <c r="B19" s="79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="72" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="72" customFormat="1" ht="18">
       <c r="A20" s="80"/>
       <c r="B20" s="78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18">
       <c r="A21" s="81"/>
       <c r="B21" s="79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A22" s="82"/>
       <c r="B22" s="83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A23" s="82"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A24" s="191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="191"/>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="45">
       <c r="A25" s="82"/>
       <c r="B25" s="79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A26" s="82"/>
       <c r="B26" s="79"/>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A27" s="82"/>
       <c r="B27" s="100" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A28" s="82"/>
       <c r="B28" s="79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="30">
       <c r="A29" s="82"/>
       <c r="B29" s="79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A30" s="82"/>
       <c r="B30" s="79"/>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A31" s="82"/>
       <c r="B31" s="100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="18">
       <c r="A32" s="82"/>
       <c r="B32" s="79" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="18">
       <c r="A33" s="82"/>
       <c r="B33" s="79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="18">
       <c r="A34" s="82"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="30">
       <c r="A35" s="82"/>
       <c r="B35" s="79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="18">
       <c r="A36" s="82"/>
       <c r="B36" s="85" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="18">
       <c r="A37" s="82"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="18">
       <c r="A38" s="191" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="191"/>
     </row>
-    <row r="39" spans="1:2" ht="28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="30">
       <c r="B39" s="79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="20" customFormat="1"/>
+    <row r="41" spans="1:2" s="20" customFormat="1" ht="15">
+      <c r="B41" s="79" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="B41" s="79" t="s">
+    <row r="42" spans="1:2" s="20" customFormat="1"/>
+    <row r="43" spans="1:2" s="20" customFormat="1" ht="30">
+      <c r="B43" s="79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="20" customFormat="1"/>
+    <row r="45" spans="1:2" ht="30">
+      <c r="B45" s="79" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:2" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.25">
-      <c r="B43" s="79" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:2" ht="28" x14ac:dyDescent="0.25">
-      <c r="B45" s="79" t="s">
+    <row r="46" spans="1:2">
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="B47" s="79" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="1:2" ht="28" x14ac:dyDescent="0.25">
-      <c r="B47" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="18">
       <c r="A49" s="191" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="191"/>
     </row>
-    <row r="50" spans="1:2" ht="28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="30">
       <c r="B50" s="79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15">
       <c r="A52" s="86" t="s">
         <v>9</v>
       </c>
@@ -9702,7 +9939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15">
       <c r="A53" s="86" t="s">
         <v>11</v>
       </c>
@@ -9710,7 +9947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15">
       <c r="A54" s="86" t="s">
         <v>13</v>
       </c>
@@ -9718,19 +9955,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="30">
       <c r="A55" s="75"/>
       <c r="B55" s="79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
       <c r="A56" s="75"/>
       <c r="B56" s="79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15">
       <c r="A57" s="86" t="s">
         <v>15</v>
       </c>
@@ -9738,19 +9975,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15">
       <c r="A58" s="75"/>
       <c r="B58" s="79" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15">
       <c r="A59" s="75"/>
       <c r="B59" s="79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15">
       <c r="A60" s="86" t="s">
         <v>17</v>
       </c>
@@ -9758,196 +9995,196 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="30">
       <c r="A61" s="75"/>
       <c r="B61" s="79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15">
+      <c r="A62" s="86" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A62" s="86" t="s">
+      <c r="B62" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="79" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" ht="15">
       <c r="A63" s="87"/>
       <c r="B63" s="79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="20" customFormat="1">
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="1:2" s="20" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" s="20" customFormat="1" ht="18">
       <c r="A65" s="191" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="191"/>
     </row>
-    <row r="66" spans="1:2" s="20" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" s="20" customFormat="1" ht="45">
       <c r="B66" s="79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="20" customFormat="1">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="1:2" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" s="8" customFormat="1" ht="18">
       <c r="A68" s="191" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="191"/>
     </row>
-    <row r="69" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" s="20" customFormat="1" ht="15">
       <c r="A69" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="95" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="8" customFormat="1" ht="30">
       <c r="A70" s="88"/>
       <c r="B70" s="93" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="8" customFormat="1" ht="14">
       <c r="A71" s="88"/>
       <c r="B71" s="89"/>
     </row>
-    <row r="72" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" s="20" customFormat="1" ht="15">
       <c r="A72" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="95" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="30">
       <c r="A73" s="88"/>
       <c r="B73" s="93" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="14">
       <c r="A74" s="88"/>
       <c r="B74" s="89"/>
     </row>
-    <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="14">
       <c r="A75" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="30">
       <c r="A76" s="88"/>
       <c r="B76" s="77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14">
       <c r="A77" s="87"/>
       <c r="B77" s="87"/>
     </row>
-    <row r="78" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" s="20" customFormat="1" ht="14">
       <c r="A78" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="97" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="8" customFormat="1" ht="30">
       <c r="A79" s="88"/>
       <c r="B79" s="77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="20" customFormat="1" ht="14">
       <c r="A80" s="87"/>
       <c r="B80" s="87"/>
     </row>
-    <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="14">
       <c r="A81" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="15">
       <c r="A82" s="88"/>
       <c r="B82" s="92" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="15">
       <c r="A83" s="88"/>
       <c r="B83" s="92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="15">
       <c r="A84" s="88"/>
       <c r="B84" s="92" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14">
       <c r="A85" s="87"/>
       <c r="B85" s="91"/>
     </row>
-    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="14">
       <c r="A86" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="45">
       <c r="A87" s="88"/>
       <c r="B87" s="77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="15">
       <c r="A88" s="88"/>
       <c r="B88" s="90" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="45">
       <c r="A89" s="88"/>
       <c r="B89" s="96" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14">
       <c r="A90" s="87"/>
       <c r="B90" s="87"/>
     </row>
-    <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="14">
       <c r="A91" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="99" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
       <c r="A92" s="75"/>
       <c r="B92" s="92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="23" t="s">
         <v>24</v>
       </c>
@@ -9983,14 +10220,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="16"/>
+    <col min="1" max="1" width="5.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="82.1640625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
@@ -9998,163 +10235,163 @@
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="32"/>
       <c r="B2" s="36"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="33"/>
       <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="34"/>
     </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="14"/>
       <c r="B4" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="34">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="51">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="51">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="51">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="34">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" s="14"/>
       <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="16">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
